--- a/data_month/zb/工业/按行业分工业企业主要经济指标(2001-2002)/工业企业流动资产平均余额.xlsx
+++ b/data_month/zb/工业/按行业分工业企业主要经济指标(2001-2002)/工业企业流动资产平均余额.xlsx
@@ -1765,7 +1765,7 @@
         <v>13.74</v>
       </c>
       <c r="N3" t="n">
-        <v>1.42</v>
+        <v>1.06</v>
       </c>
       <c r="O3" t="n">
         <v>1.74</v>
@@ -1846,7 +1846,7 @@
         <v>9.619999999999999</v>
       </c>
       <c r="AO3" t="n">
-        <v>33.45999999999958</v>
+        <v>22.01999999999906</v>
       </c>
       <c r="AP3" t="n">
         <v>2587.92</v>
@@ -1909,7 +1909,7 @@
         <v>2.66</v>
       </c>
       <c r="BJ3" t="n">
-        <v>871.0599999999999</v>
+        <v>758.1799999999998</v>
       </c>
       <c r="BK3" t="n">
         <v>973.62</v>
@@ -2261,7 +2261,7 @@
         <v>8.32</v>
       </c>
       <c r="Q4" t="n">
-        <v>23.24000000000024</v>
+        <v>11.02000000000044</v>
       </c>
       <c r="R4" t="n">
         <v>3479.27</v>
@@ -2270,7 +2270,7 @@
         <v>10.23</v>
       </c>
       <c r="T4" t="n">
-        <v>10.2199999999998</v>
+        <v>4.589999999999691</v>
       </c>
       <c r="U4" t="n">
         <v>604.1</v>
@@ -2279,7 +2279,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="W4" t="n">
-        <v>27.94000000000029</v>
+        <v>7.340000000000847</v>
       </c>
       <c r="X4" t="n">
         <v>1505.63</v>
@@ -2342,7 +2342,7 @@
         <v>7.56</v>
       </c>
       <c r="AR4" t="n">
-        <v>19.09999999999991</v>
+        <v>0.7699999999995253</v>
       </c>
       <c r="AS4" t="n">
         <v>1269.45</v>
@@ -2369,7 +2369,7 @@
         <v>15.63</v>
       </c>
       <c r="BA4" t="n">
-        <v>4.650000000000034</v>
+        <v>1.060000000000059</v>
       </c>
       <c r="BB4" t="n">
         <v>295.23</v>
@@ -2378,7 +2378,7 @@
         <v>12.16</v>
       </c>
       <c r="BD4" t="n">
-        <v>159.43</v>
+        <v>146.99</v>
       </c>
       <c r="BE4" t="n">
         <v>160.48</v>
@@ -2432,7 +2432,7 @@
         <v>8.09</v>
       </c>
       <c r="BV4" t="n">
-        <v>101.5299999999997</v>
+        <v>12.32999999999903</v>
       </c>
       <c r="BW4" t="n">
         <v>4784.55</v>
@@ -2468,7 +2468,7 @@
         <v>14.45</v>
       </c>
       <c r="CH4" t="n">
-        <v>893.34</v>
+        <v>790.9</v>
       </c>
       <c r="CI4" t="n">
         <v>983.65</v>
@@ -2531,7 +2531,7 @@
         <v>7.2</v>
       </c>
       <c r="DC4" t="n">
-        <v>7.080000000000041</v>
+        <v>1.380000000000102</v>
       </c>
       <c r="DD4" t="n">
         <v>759.11</v>
@@ -2540,7 +2540,7 @@
         <v>10.57</v>
       </c>
       <c r="DF4" t="n">
-        <v>5.069999999999936</v>
+        <v>1.529999999999976</v>
       </c>
       <c r="DG4" t="n">
         <v>1389.71</v>
@@ -2549,7 +2549,7 @@
         <v>6.85</v>
       </c>
       <c r="DI4" t="n">
-        <v>66.49999999999977</v>
+        <v>34.81999999999947</v>
       </c>
       <c r="DJ4" t="n">
         <v>1252.03</v>
@@ -2567,7 +2567,7 @@
         <v>10.81</v>
       </c>
       <c r="DO4" t="n">
-        <v>2.540000000000006</v>
+        <v>0.6000000000000081</v>
       </c>
       <c r="DP4" t="n">
         <v>105.86</v>
@@ -2703,7 +2703,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14.70000000000004</v>
+        <v>0.2100000000002584</v>
       </c>
       <c r="C5" t="n">
         <v>1820.77</v>
@@ -2712,7 +2712,7 @@
         <v>10.65</v>
       </c>
       <c r="E5" t="n">
-        <v>36.25</v>
+        <v>10.98999999999978</v>
       </c>
       <c r="F5" t="n">
         <v>4292.12</v>
@@ -2739,7 +2739,7 @@
         <v>10.81</v>
       </c>
       <c r="N5" t="n">
-        <v>1.49</v>
+        <v>1.09</v>
       </c>
       <c r="O5" t="n">
         <v>1.75</v>
@@ -2748,7 +2748,7 @@
         <v>8.890000000000001</v>
       </c>
       <c r="Q5" t="n">
-        <v>20.14000000000033</v>
+        <v>9.119999999999891</v>
       </c>
       <c r="R5" t="n">
         <v>3501.61</v>
@@ -2757,7 +2757,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="T5" t="n">
-        <v>547.2200000000001</v>
+        <v>523.2300000000013</v>
       </c>
       <c r="U5" t="n">
         <v>612.16</v>
@@ -2775,7 +2775,7 @@
         <v>14.01</v>
       </c>
       <c r="Z5" t="n">
-        <v>3.770000000000039</v>
+        <v>0.6500000000000348</v>
       </c>
       <c r="AA5" t="n">
         <v>441.05</v>
@@ -2811,7 +2811,7 @@
         <v>11.6</v>
       </c>
       <c r="AL5" t="n">
-        <v>5.399999999999949</v>
+        <v>0.6399999999999011</v>
       </c>
       <c r="AM5" t="n">
         <v>288.35</v>
@@ -2820,7 +2820,7 @@
         <v>11.61</v>
       </c>
       <c r="AO5" t="n">
-        <v>13.2599999999993</v>
+        <v>1.639999999998951</v>
       </c>
       <c r="AP5" t="n">
         <v>2667.62</v>
@@ -2829,7 +2829,7 @@
         <v>8</v>
       </c>
       <c r="AR5" t="n">
-        <v>22.64999999999986</v>
+        <v>2.780000000000426</v>
       </c>
       <c r="AS5" t="n">
         <v>1267.42</v>
@@ -2838,7 +2838,7 @@
         <v>14.63</v>
       </c>
       <c r="AU5" t="n">
-        <v>3.400000000000034</v>
+        <v>1.690000000000054</v>
       </c>
       <c r="AV5" t="n">
         <v>202.11</v>
@@ -2874,7 +2874,7 @@
         <v>-0.46</v>
       </c>
       <c r="BG5" t="n">
-        <v>2.610000000000014</v>
+        <v>1.200000000000103</v>
       </c>
       <c r="BH5" t="n">
         <v>539.9</v>
@@ -2883,7 +2883,7 @@
         <v>3.97</v>
       </c>
       <c r="BJ5" t="n">
-        <v>887.8499999999999</v>
+        <v>758.6099999999997</v>
       </c>
       <c r="BK5" t="n">
         <v>1012.25</v>
@@ -2892,7 +2892,7 @@
         <v>8.66</v>
       </c>
       <c r="BM5" t="n">
-        <v>141.74</v>
+        <v>105.54</v>
       </c>
       <c r="BN5" t="n">
         <v>169.66</v>
@@ -2901,7 +2901,7 @@
         <v>2.14</v>
       </c>
       <c r="BP5" t="n">
-        <v>1343.11</v>
+        <v>1279.47</v>
       </c>
       <c r="BQ5" t="n">
         <v>1452.56</v>
@@ -2919,7 +2919,7 @@
         <v>8.25</v>
       </c>
       <c r="BV5" t="n">
-        <v>99.49000000000024</v>
+        <v>20.2600000000007</v>
       </c>
       <c r="BW5" t="n">
         <v>4918.06</v>
@@ -2937,7 +2937,7 @@
         <v>12.36</v>
       </c>
       <c r="CB5" t="n">
-        <v>8.389999999999986</v>
+        <v>8.149999999999977</v>
       </c>
       <c r="CC5" t="n">
         <v>536.47</v>
@@ -2946,7 +2946,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="CE5" t="n">
-        <v>1171.88</v>
+        <v>1074.8</v>
       </c>
       <c r="CF5" t="n">
         <v>1362.63</v>
@@ -2973,7 +2973,7 @@
         <v>10.59</v>
       </c>
       <c r="CN5" t="n">
-        <v>293.2499999999999</v>
+        <v>289.2899999999996</v>
       </c>
       <c r="CO5" t="n">
         <v>354.16</v>
@@ -2982,7 +2982,7 @@
         <v>15.34</v>
       </c>
       <c r="CQ5" t="n">
-        <v>10.00999999999999</v>
+        <v>3.240000000000007</v>
       </c>
       <c r="CR5" t="n">
         <v>1061.06</v>
@@ -3000,7 +3000,7 @@
         <v>10.15</v>
       </c>
       <c r="CW5" t="n">
-        <v>2135.83</v>
+        <v>2056.39</v>
       </c>
       <c r="CX5" t="n">
         <v>2325.64</v>
@@ -3018,7 +3018,7 @@
         <v>5.81</v>
       </c>
       <c r="DC5" t="n">
-        <v>23.77999999999997</v>
+        <v>12.55999999999963</v>
       </c>
       <c r="DD5" t="n">
         <v>764.6</v>
@@ -3027,7 +3027,7 @@
         <v>10.24</v>
       </c>
       <c r="DF5" t="n">
-        <v>22.45000000000004</v>
+        <v>12.79000000000016</v>
       </c>
       <c r="DG5" t="n">
         <v>1404.46</v>
@@ -3036,7 +3036,7 @@
         <v>7.56</v>
       </c>
       <c r="DI5" t="n">
-        <v>1053.32</v>
+        <v>834.8400000000013</v>
       </c>
       <c r="DJ5" t="n">
         <v>1253.05</v>
@@ -3054,7 +3054,7 @@
         <v>10.42</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.8499999999999943</v>
+        <v>0.2499999999999862</v>
       </c>
       <c r="DP5" t="n">
         <v>108.7</v>
@@ -3190,7 +3190,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15.52999999999997</v>
+        <v>0.6199999999996706</v>
       </c>
       <c r="C6" t="n">
         <v>1826.83</v>
@@ -3199,7 +3199,7 @@
         <v>9.720000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>21.42000000000007</v>
+        <v>10.43000000000029</v>
       </c>
       <c r="F6" t="n">
         <v>4350.29</v>
@@ -3226,7 +3226,7 @@
         <v>11.6</v>
       </c>
       <c r="N6" t="n">
-        <v>1.5</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="O6" t="n">
         <v>1.75</v>
@@ -3262,7 +3262,7 @@
         <v>14.88</v>
       </c>
       <c r="Z6" t="n">
-        <v>3.930000000000007</v>
+        <v>0.1599999999999677</v>
       </c>
       <c r="AA6" t="n">
         <v>450.06</v>
@@ -3271,7 +3271,7 @@
         <v>14.09</v>
       </c>
       <c r="AC6" t="n">
-        <v>3.269999999999982</v>
+        <v>0.3000000000002851</v>
       </c>
       <c r="AD6" t="n">
         <v>1002.14</v>
@@ -3280,7 +3280,7 @@
         <v>13.72</v>
       </c>
       <c r="AF6" t="n">
-        <v>158.73</v>
+        <v>152.45</v>
       </c>
       <c r="AG6" t="n">
         <v>180.8</v>
@@ -3298,7 +3298,7 @@
         <v>11.49</v>
       </c>
       <c r="AL6" t="n">
-        <v>5.470000000000027</v>
+        <v>0.07000000000007844</v>
       </c>
       <c r="AM6" t="n">
         <v>291.74</v>
@@ -3307,7 +3307,7 @@
         <v>9.619999999999999</v>
       </c>
       <c r="AO6" t="n">
-        <v>11.52000000000044</v>
+        <v>6.600000000003588</v>
       </c>
       <c r="AP6" t="n">
         <v>2700.77</v>
@@ -3316,7 +3316,7 @@
         <v>8.25</v>
       </c>
       <c r="AR6" t="n">
-        <v>3.60000000000014</v>
+        <v>0.050000000000189</v>
       </c>
       <c r="AS6" t="n">
         <v>1304.96</v>
@@ -3325,7 +3325,7 @@
         <v>15.66</v>
       </c>
       <c r="AU6" t="n">
-        <v>2.340000000000003</v>
+        <v>0.6499999999999491</v>
       </c>
       <c r="AV6" t="n">
         <v>203.06</v>
@@ -3343,7 +3343,7 @@
         <v>14.96</v>
       </c>
       <c r="BA6" t="n">
-        <v>3.740000000000009</v>
+        <v>1.299999999999953</v>
       </c>
       <c r="BB6" t="n">
         <v>303.48</v>
@@ -3370,7 +3370,7 @@
         <v>2.91</v>
       </c>
       <c r="BJ6" t="n">
-        <v>912.37</v>
+        <v>24.5200000000001</v>
       </c>
       <c r="BK6" t="n">
         <v>1003.84</v>
@@ -3406,7 +3406,7 @@
         <v>6.6</v>
       </c>
       <c r="BV6" t="n">
-        <v>44.5</v>
+        <v>3.979999999998597</v>
       </c>
       <c r="BW6" t="n">
         <v>4924.49</v>
@@ -3415,7 +3415,7 @@
         <v>23.43</v>
       </c>
       <c r="BY6" t="n">
-        <v>14.65999999999985</v>
+        <v>0.7200000000002493</v>
       </c>
       <c r="BZ6" t="n">
         <v>3170.47</v>
@@ -3442,7 +3442,7 @@
         <v>11.24</v>
       </c>
       <c r="CH6" t="n">
-        <v>33.69000000000005</v>
+        <v>3.090000000000133</v>
       </c>
       <c r="CI6" t="n">
         <v>1047.34</v>
@@ -3451,7 +3451,7 @@
         <v>13.03</v>
       </c>
       <c r="CK6" t="n">
-        <v>12.76000000000022</v>
+        <v>5.480000000000468</v>
       </c>
       <c r="CL6" t="n">
         <v>2762.25</v>
@@ -3469,7 +3469,7 @@
         <v>18.18</v>
       </c>
       <c r="CQ6" t="n">
-        <v>4.710000000000036</v>
+        <v>1.47000000000003</v>
       </c>
       <c r="CR6" t="n">
         <v>1074.12</v>
@@ -3478,7 +3478,7 @@
         <v>11.43</v>
       </c>
       <c r="CT6" t="n">
-        <v>14.83999999999992</v>
+        <v>3.399999999999865</v>
       </c>
       <c r="CU6" t="n">
         <v>1396.52</v>
@@ -3496,7 +3496,7 @@
         <v>9.210000000000001</v>
       </c>
       <c r="CZ6" t="n">
-        <v>1.819999999999993</v>
+        <v>0.399999999999977</v>
       </c>
       <c r="DA6" t="n">
         <v>232.38</v>
@@ -3505,7 +3505,7 @@
         <v>6.16</v>
       </c>
       <c r="DC6" t="n">
-        <v>666.4499999999999</v>
+        <v>596.7100000000005</v>
       </c>
       <c r="DD6" t="n">
         <v>785.03</v>
@@ -3532,7 +3532,7 @@
         <v>11.99</v>
       </c>
       <c r="DL6" t="n">
-        <v>6.769999999999982</v>
+        <v>0.610000000000126</v>
       </c>
       <c r="DM6" t="n">
         <v>3338.57</v>
@@ -3677,7 +3677,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.320000000000171</v>
+        <v>1.830000000000384</v>
       </c>
       <c r="C7" t="n">
         <v>1840.24</v>
@@ -3686,7 +3686,7 @@
         <v>9.5</v>
       </c>
       <c r="E7" t="n">
-        <v>11.00999999999976</v>
+        <v>0.5799999999994707</v>
       </c>
       <c r="F7" t="n">
         <v>4365.04</v>
@@ -3704,7 +3704,7 @@
         <v>12.6</v>
       </c>
       <c r="K7" t="n">
-        <v>2.240000000000009</v>
+        <v>0.5199999999999811</v>
       </c>
       <c r="L7" t="n">
         <v>442.43</v>
@@ -3713,7 +3713,7 @@
         <v>11.41</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1299999999999999</v>
+        <v>0.09999999999999989</v>
       </c>
       <c r="O7" t="n">
         <v>1.74</v>
@@ -3722,7 +3722,7 @@
         <v>15.93</v>
       </c>
       <c r="Q7" t="n">
-        <v>24.9100000000003</v>
+        <v>1.350000000002623</v>
       </c>
       <c r="R7" t="n">
         <v>3519.55</v>
@@ -3731,7 +3731,7 @@
         <v>8.69</v>
       </c>
       <c r="T7" t="n">
-        <v>562.1700000000001</v>
+        <v>541.2900000000004</v>
       </c>
       <c r="U7" t="n">
         <v>612.48</v>
@@ -3740,7 +3740,7 @@
         <v>7.78</v>
       </c>
       <c r="W7" t="n">
-        <v>9.949999999999823</v>
+        <v>3.229999999999569</v>
       </c>
       <c r="X7" t="n">
         <v>1555.65</v>
@@ -3749,7 +3749,7 @@
         <v>15.76</v>
       </c>
       <c r="Z7" t="n">
-        <v>4.20999999999998</v>
+        <v>0.1200000000000059</v>
       </c>
       <c r="AA7" t="n">
         <v>452.02</v>
@@ -3758,7 +3758,7 @@
         <v>13.46</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.370000000000008</v>
+        <v>1.229999999999474</v>
       </c>
       <c r="AD7" t="n">
         <v>1005.85</v>
@@ -3785,7 +3785,7 @@
         <v>11.44</v>
       </c>
       <c r="AL7" t="n">
-        <v>2.699999999999932</v>
+        <v>2.489999999999696</v>
       </c>
       <c r="AM7" t="n">
         <v>295.04</v>
@@ -3803,7 +3803,7 @@
         <v>7.78</v>
       </c>
       <c r="AR7" t="n">
-        <v>1124.71</v>
+        <v>1117.41</v>
       </c>
       <c r="AS7" t="n">
         <v>1325.82</v>
@@ -3812,7 +3812,7 @@
         <v>14.84</v>
       </c>
       <c r="AU7" t="n">
-        <v>2.559999999999974</v>
+        <v>0.2199999999999709</v>
       </c>
       <c r="AV7" t="n">
         <v>204.73</v>
@@ -3821,7 +3821,7 @@
         <v>15.82</v>
       </c>
       <c r="AX7" t="n">
-        <v>3.440000000000062</v>
+        <v>0.5600000000004297</v>
       </c>
       <c r="AY7" t="n">
         <v>1042.07</v>
@@ -3830,7 +3830,7 @@
         <v>13.54</v>
       </c>
       <c r="BA7" t="n">
-        <v>5.369999999999948</v>
+        <v>1.629999999999939</v>
       </c>
       <c r="BB7" t="n">
         <v>307.2</v>
@@ -3848,7 +3848,7 @@
         <v>-1.34</v>
       </c>
       <c r="BG7" t="n">
-        <v>519.59</v>
+        <v>518.0700000000001</v>
       </c>
       <c r="BH7" t="n">
         <v>538.89</v>
@@ -3866,7 +3866,7 @@
         <v>11.29</v>
       </c>
       <c r="BM7" t="n">
-        <v>149.64</v>
+        <v>141.8</v>
       </c>
       <c r="BN7" t="n">
         <v>171.24</v>
@@ -3893,7 +3893,7 @@
         <v>6.21</v>
       </c>
       <c r="BV7" t="n">
-        <v>40.09000000000015</v>
+        <v>15.85000000000085</v>
       </c>
       <c r="BW7" t="n">
         <v>4946.15</v>
@@ -3902,7 +3902,7 @@
         <v>22.6</v>
       </c>
       <c r="BY7" t="n">
-        <v>9.450000000000282</v>
+        <v>0.3199999999997336</v>
       </c>
       <c r="BZ7" t="n">
         <v>3224.34</v>
@@ -3920,7 +3920,7 @@
         <v>8.26</v>
       </c>
       <c r="CE7" t="n">
-        <v>1183.14</v>
+        <v>1100.86</v>
       </c>
       <c r="CF7" t="n">
         <v>1371.44</v>
@@ -3929,7 +3929,7 @@
         <v>12.72</v>
       </c>
       <c r="CH7" t="n">
-        <v>33.3599999999999</v>
+        <v>7.31999999999983</v>
       </c>
       <c r="CI7" t="n">
         <v>1048.2</v>
@@ -3956,7 +3956,7 @@
         <v>17.96</v>
       </c>
       <c r="CQ7" t="n">
-        <v>3.310000000000059</v>
+        <v>0.369999999999999</v>
       </c>
       <c r="CR7" t="n">
         <v>1116.26</v>
@@ -3965,7 +3965,7 @@
         <v>15.24</v>
       </c>
       <c r="CT7" t="n">
-        <v>12.41000000000008</v>
+        <v>3.290000000000187</v>
       </c>
       <c r="CU7" t="n">
         <v>1415.75</v>
@@ -3974,7 +3974,7 @@
         <v>11.73</v>
       </c>
       <c r="CW7" t="n">
-        <v>18.83000000000038</v>
+        <v>1.80000000000063</v>
       </c>
       <c r="CX7" t="n">
         <v>2386.15</v>
@@ -3983,7 +3983,7 @@
         <v>9.82</v>
       </c>
       <c r="CZ7" t="n">
-        <v>1.030000000000001</v>
+        <v>0.2300000000000469</v>
       </c>
       <c r="DA7" t="n">
         <v>236.63</v>
@@ -4010,7 +4010,7 @@
         <v>6.39</v>
       </c>
       <c r="DI7" t="n">
-        <v>16.80999999999995</v>
+        <v>3.970000000000034</v>
       </c>
       <c r="DJ7" t="n">
         <v>1279.06</v>
@@ -4019,7 +4019,7 @@
         <v>12.99</v>
       </c>
       <c r="DL7" t="n">
-        <v>13.98000000000001</v>
+        <v>1.980000000000008</v>
       </c>
       <c r="DM7" t="n">
         <v>3368.42</v>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.66999999999985</v>
+        <v>2.029999999999509</v>
       </c>
       <c r="C8" t="n">
         <v>1846.2</v>
@@ -4173,7 +4173,7 @@
         <v>8.57</v>
       </c>
       <c r="E8" t="n">
-        <v>65.32000000000016</v>
+        <v>21.28000000000111</v>
       </c>
       <c r="F8" t="n">
         <v>4414.42</v>
@@ -4182,7 +4182,7 @@
         <v>13.61</v>
       </c>
       <c r="H8" t="n">
-        <v>20.23000000000002</v>
+        <v>19.42999999999984</v>
       </c>
       <c r="I8" t="n">
         <v>600.74</v>
@@ -4191,7 +4191,7 @@
         <v>14.12</v>
       </c>
       <c r="K8" t="n">
-        <v>8.509999999999991</v>
+        <v>4.710000000000039</v>
       </c>
       <c r="L8" t="n">
         <v>445.33</v>
@@ -4200,7 +4200,7 @@
         <v>11.51</v>
       </c>
       <c r="N8" t="n">
-        <v>1.43</v>
+        <v>0.9400000000000002</v>
       </c>
       <c r="O8" t="n">
         <v>1.78</v>
@@ -4209,7 +4209,7 @@
         <v>9.07</v>
       </c>
       <c r="Q8" t="n">
-        <v>37.71000000000004</v>
+        <v>5.559999999997698</v>
       </c>
       <c r="R8" t="n">
         <v>3524.38</v>
@@ -4227,7 +4227,7 @@
         <v>8.16</v>
       </c>
       <c r="W8" t="n">
-        <v>14.3900000000001</v>
+        <v>1.210000000000707</v>
       </c>
       <c r="X8" t="n">
         <v>1575.4</v>
@@ -4236,7 +4236,7 @@
         <v>16.07</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.4300000000000068</v>
+        <v>0.0300000000000273</v>
       </c>
       <c r="AA8" t="n">
         <v>459.11</v>
@@ -4245,7 +4245,7 @@
         <v>12.93</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.300000000000059</v>
+        <v>0.7700000000002998</v>
       </c>
       <c r="AD8" t="n">
         <v>1024.32</v>
@@ -4263,7 +4263,7 @@
         <v>11.23</v>
       </c>
       <c r="AI8" t="n">
-        <v>178.9100000000035</v>
+        <v>166.7100000000211</v>
       </c>
       <c r="AJ8" t="n">
         <v>55443.83</v>
@@ -4290,7 +4290,7 @@
         <v>8.880000000000001</v>
       </c>
       <c r="AR8" t="n">
-        <v>1150.38</v>
+        <v>25.67000000000007</v>
       </c>
       <c r="AS8" t="n">
         <v>1330.08</v>
@@ -4299,7 +4299,7 @@
         <v>15.56</v>
       </c>
       <c r="AU8" t="n">
-        <v>2.75</v>
+        <v>0.1900000000000261</v>
       </c>
       <c r="AV8" t="n">
         <v>205.73</v>
@@ -4308,7 +4308,7 @@
         <v>13.24</v>
       </c>
       <c r="AX8" t="n">
-        <v>4.73000000000002</v>
+        <v>0.009999999999620091</v>
       </c>
       <c r="AY8" t="n">
         <v>1049.35</v>
@@ -4317,7 +4317,7 @@
         <v>12.62</v>
       </c>
       <c r="BA8" t="n">
-        <v>270.89</v>
+        <v>260.6300000000001</v>
       </c>
       <c r="BB8" t="n">
         <v>304.76</v>
@@ -4326,7 +4326,7 @@
         <v>6.51</v>
       </c>
       <c r="BD8" t="n">
-        <v>165.55</v>
+        <v>164.67</v>
       </c>
       <c r="BE8" t="n">
         <v>165</v>
@@ -4344,7 +4344,7 @@
         <v>3.27</v>
       </c>
       <c r="BJ8" t="n">
-        <v>910.91</v>
+        <v>867.0699999999998</v>
       </c>
       <c r="BK8" t="n">
         <v>1088.72</v>
@@ -4371,7 +4371,7 @@
         <v>5.16</v>
       </c>
       <c r="BS8" t="n">
-        <v>79.71000000000004</v>
+        <v>44.91000000000076</v>
       </c>
       <c r="BT8" t="n">
         <v>4600.12</v>
@@ -4425,7 +4425,7 @@
         <v>-0.08</v>
       </c>
       <c r="CK8" t="n">
-        <v>6.689999999999602</v>
+        <v>4.970000000000285</v>
       </c>
       <c r="CL8" t="n">
         <v>2787.68</v>
@@ -4434,7 +4434,7 @@
         <v>10.34</v>
       </c>
       <c r="CN8" t="n">
-        <v>2.390000000000043</v>
+        <v>1.870000000000063</v>
       </c>
       <c r="CO8" t="n">
         <v>367.33</v>
@@ -4443,7 +4443,7 @@
         <v>18.2</v>
       </c>
       <c r="CQ8" t="n">
-        <v>6.80999999999994</v>
+        <v>0.1899999999998219</v>
       </c>
       <c r="CR8" t="n">
         <v>1098.1</v>
@@ -4452,7 +4452,7 @@
         <v>12.98</v>
       </c>
       <c r="CT8" t="n">
-        <v>8.08999999999992</v>
+        <v>1.509999999999545</v>
       </c>
       <c r="CU8" t="n">
         <v>1422.05</v>
@@ -4461,7 +4461,7 @@
         <v>11.14</v>
       </c>
       <c r="CW8" t="n">
-        <v>20.05999999999995</v>
+        <v>1.229999999999571</v>
       </c>
       <c r="CX8" t="n">
         <v>2389.21</v>
@@ -4470,7 +4470,7 @@
         <v>8.18</v>
       </c>
       <c r="CZ8" t="n">
-        <v>220.64</v>
+        <v>216.92</v>
       </c>
       <c r="DA8" t="n">
         <v>238.54</v>
@@ -4479,7 +4479,7 @@
         <v>7.57</v>
       </c>
       <c r="DC8" t="n">
-        <v>9.619999999999889</v>
+        <v>5.059999999999489</v>
       </c>
       <c r="DD8" t="n">
         <v>790.24</v>
@@ -4497,7 +4497,7 @@
         <v>7.19</v>
       </c>
       <c r="DI8" t="n">
-        <v>1125.64</v>
+        <v>1084.08</v>
       </c>
       <c r="DJ8" t="n">
         <v>1279.82</v>
@@ -4506,7 +4506,7 @@
         <v>10.99</v>
       </c>
       <c r="DL8" t="n">
-        <v>34.8300000000004</v>
+        <v>9.680000000000343</v>
       </c>
       <c r="DM8" t="n">
         <v>3355.97</v>
@@ -4515,7 +4515,7 @@
         <v>10.33</v>
       </c>
       <c r="DO8" t="n">
-        <v>107.5</v>
+        <v>107.46</v>
       </c>
       <c r="DP8" t="n">
         <v>112.71</v>
@@ -4651,7 +4651,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.350000000000128</v>
+        <v>1.29000000000111</v>
       </c>
       <c r="C9" t="n">
         <v>1853.55</v>
@@ -4669,7 +4669,7 @@
         <v>11.8</v>
       </c>
       <c r="H9" t="n">
-        <v>512.23</v>
+        <v>432.5100000000002</v>
       </c>
       <c r="I9" t="n">
         <v>605.8200000000001</v>
@@ -4678,7 +4678,7 @@
         <v>10.24</v>
       </c>
       <c r="K9" t="n">
-        <v>6.509999999999991</v>
+        <v>0.2400000000000091</v>
       </c>
       <c r="L9" t="n">
         <v>445.78</v>
@@ -4687,7 +4687,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="N9" t="n">
-        <v>1.53</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="O9" t="n">
         <v>1.7</v>
@@ -4696,7 +4696,7 @@
         <v>8.880000000000001</v>
       </c>
       <c r="Q9" t="n">
-        <v>26.38000000000011</v>
+        <v>0.78000000000063</v>
       </c>
       <c r="R9" t="n">
         <v>3541.23</v>
@@ -4705,7 +4705,7 @@
         <v>6.45</v>
       </c>
       <c r="T9" t="n">
-        <v>4.709999999999923</v>
+        <v>0.6599999999998543</v>
       </c>
       <c r="U9" t="n">
         <v>618.75</v>
@@ -4714,7 +4714,7 @@
         <v>8.789999999999999</v>
       </c>
       <c r="W9" t="n">
-        <v>12.80999999999995</v>
+        <v>2.719999999998691</v>
       </c>
       <c r="X9" t="n">
         <v>1599.67</v>
@@ -4723,7 +4723,7 @@
         <v>15.51</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.999999999999996</v>
+        <v>0.9599999999999214</v>
       </c>
       <c r="AA9" t="n">
         <v>461.48</v>
@@ -4732,7 +4732,7 @@
         <v>11.17</v>
       </c>
       <c r="AC9" t="n">
-        <v>4.97999999999991</v>
+        <v>0.3799999999997921</v>
       </c>
       <c r="AD9" t="n">
         <v>1033.47</v>
@@ -4741,7 +4741,7 @@
         <v>13.56</v>
       </c>
       <c r="AF9" t="n">
-        <v>164.96</v>
+        <v>162.8</v>
       </c>
       <c r="AG9" t="n">
         <v>186.31</v>
@@ -4750,7 +4750,7 @@
         <v>9.449999999999999</v>
       </c>
       <c r="AI9" t="n">
-        <v>428.1600000000035</v>
+        <v>73.38999999999211</v>
       </c>
       <c r="AJ9" t="n">
         <v>55845.13</v>
@@ -4768,7 +4768,7 @@
         <v>10.46</v>
       </c>
       <c r="AO9" t="n">
-        <v>24.59999999999991</v>
+        <v>21.67999999999983</v>
       </c>
       <c r="AP9" t="n">
         <v>2742.67</v>
@@ -4786,7 +4786,7 @@
         <v>15.08</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.8600000000000141</v>
+        <v>0.2899999999999357</v>
       </c>
       <c r="AV9" t="n">
         <v>206.33</v>
@@ -4840,7 +4840,7 @@
         <v>20.41</v>
       </c>
       <c r="BM9" t="n">
-        <v>150.02</v>
+        <v>148.9</v>
       </c>
       <c r="BN9" t="n">
         <v>174.12</v>
@@ -4867,7 +4867,7 @@
         <v>5.78</v>
       </c>
       <c r="BV9" t="n">
-        <v>59.03999999999996</v>
+        <v>55.4400000000014</v>
       </c>
       <c r="BW9" t="n">
         <v>5130.8</v>
@@ -4876,7 +4876,7 @@
         <v>22.03</v>
       </c>
       <c r="BY9" t="n">
-        <v>19.63999999999987</v>
+        <v>17.40000000000011</v>
       </c>
       <c r="BZ9" t="n">
         <v>3271.16</v>
@@ -4885,7 +4885,7 @@
         <v>13.44</v>
       </c>
       <c r="CB9" t="n">
-        <v>8.549999999999958</v>
+        <v>3.199999999999935</v>
       </c>
       <c r="CC9" t="n">
         <v>560.8099999999999</v>
@@ -4894,7 +4894,7 @@
         <v>7.64</v>
       </c>
       <c r="CE9" t="n">
-        <v>1200</v>
+        <v>991.96</v>
       </c>
       <c r="CF9" t="n">
         <v>1371.44</v>
@@ -4903,7 +4903,7 @@
         <v>9.220000000000001</v>
       </c>
       <c r="CH9" t="n">
-        <v>9.099999999999909</v>
+        <v>3.499999999999545</v>
       </c>
       <c r="CI9" t="n">
         <v>980.29</v>
@@ -4912,7 +4912,7 @@
         <v>-2.23</v>
       </c>
       <c r="CK9" t="n">
-        <v>24.6800000000003</v>
+        <v>0.5000000000008722</v>
       </c>
       <c r="CL9" t="n">
         <v>2808.99</v>
@@ -4921,7 +4921,7 @@
         <v>10.31</v>
       </c>
       <c r="CN9" t="n">
-        <v>4.899999999999977</v>
+        <v>0.2499999999998859</v>
       </c>
       <c r="CO9" t="n">
         <v>374.51</v>
@@ -4930,7 +4930,7 @@
         <v>18.53</v>
       </c>
       <c r="CQ9" t="n">
-        <v>2.13999999999999</v>
+        <v>1.760000000000346</v>
       </c>
       <c r="CR9" t="n">
         <v>1107.14</v>
@@ -4939,7 +4939,7 @@
         <v>12.74</v>
       </c>
       <c r="CT9" t="n">
-        <v>5.620000000000118</v>
+        <v>0.8200000000003866</v>
       </c>
       <c r="CU9" t="n">
         <v>1427.12</v>
@@ -4948,7 +4948,7 @@
         <v>9.779999999999999</v>
       </c>
       <c r="CW9" t="n">
-        <v>9.769999999999982</v>
+        <v>6.08000000000127</v>
       </c>
       <c r="CX9" t="n">
         <v>2407.95</v>
@@ -4975,7 +4975,7 @@
         <v>12.24</v>
       </c>
       <c r="DF9" t="n">
-        <v>6.569999999999709</v>
+        <v>6.569999999998796</v>
       </c>
       <c r="DG9" t="n">
         <v>1444.94</v>
@@ -5138,7 +5138,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.930000000000064</v>
+        <v>2.579999999999935</v>
       </c>
       <c r="C10" t="n">
         <v>1858.69</v>
@@ -5147,7 +5147,7 @@
         <v>7.62</v>
       </c>
       <c r="E10" t="n">
-        <v>35.42999999999937</v>
+        <v>6.629999999998278</v>
       </c>
       <c r="F10" t="n">
         <v>4444.27</v>
@@ -5165,7 +5165,7 @@
         <v>14.61</v>
       </c>
       <c r="K10" t="n">
-        <v>2.889999999999986</v>
+        <v>2.409999999999968</v>
       </c>
       <c r="L10" t="n">
         <v>452.38</v>
@@ -5174,7 +5174,7 @@
         <v>8.58</v>
       </c>
       <c r="N10" t="n">
-        <v>1.36</v>
+        <v>1.06</v>
       </c>
       <c r="O10" t="n">
         <v>1.72</v>
@@ -5183,7 +5183,7 @@
         <v>12.34</v>
       </c>
       <c r="Q10" t="n">
-        <v>21.36999999999989</v>
+        <v>7.009999999998891</v>
       </c>
       <c r="R10" t="n">
         <v>3579.59</v>
@@ -5192,7 +5192,7 @@
         <v>6.76</v>
       </c>
       <c r="T10" t="n">
-        <v>3.550000000000068</v>
+        <v>0.1900000000001683</v>
       </c>
       <c r="U10" t="n">
         <v>618.89</v>
@@ -5201,7 +5201,7 @@
         <v>7.67</v>
       </c>
       <c r="W10" t="n">
-        <v>11.71000000000003</v>
+        <v>3.340000000000355</v>
       </c>
       <c r="X10" t="n">
         <v>1614.5</v>
@@ -5210,7 +5210,7 @@
         <v>15.51</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.9900000000000091</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="AA10" t="n">
         <v>477.31</v>
@@ -5219,7 +5219,7 @@
         <v>12.13</v>
       </c>
       <c r="AC10" t="n">
-        <v>2.350000000000023</v>
+        <v>1.590000000000439</v>
       </c>
       <c r="AD10" t="n">
         <v>1041.01</v>
@@ -5237,7 +5237,7 @@
         <v>13.71</v>
       </c>
       <c r="AI10" t="n">
-        <v>346.9700000000012</v>
+        <v>24.33000000000911</v>
       </c>
       <c r="AJ10" t="n">
         <v>56166.59</v>
@@ -5264,7 +5264,7 @@
         <v>7.94</v>
       </c>
       <c r="AR10" t="n">
-        <v>16.65000000000009</v>
+        <v>10.41000000000033</v>
       </c>
       <c r="AS10" t="n">
         <v>1324.05</v>
@@ -5273,7 +5273,7 @@
         <v>14.94</v>
       </c>
       <c r="AU10" t="n">
-        <v>1.909999999999997</v>
+        <v>0.1899999999999689</v>
       </c>
       <c r="AV10" t="n">
         <v>207.2</v>
@@ -5282,7 +5282,7 @@
         <v>10.19</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.9099999999999682</v>
+        <v>0.3100000000000874</v>
       </c>
       <c r="AY10" t="n">
         <v>1083.26</v>
@@ -5300,7 +5300,7 @@
         <v>9.59</v>
       </c>
       <c r="BD10" t="n">
-        <v>164.94</v>
+        <v>161.78</v>
       </c>
       <c r="BE10" t="n">
         <v>163.97</v>
@@ -5336,7 +5336,7 @@
         <v>14.97</v>
       </c>
       <c r="BP10" t="n">
-        <v>1405.64</v>
+        <v>1404.84</v>
       </c>
       <c r="BQ10" t="n">
         <v>1493.67</v>
@@ -5345,7 +5345,7 @@
         <v>6.17</v>
       </c>
       <c r="BS10" t="n">
-        <v>4303.529999999999</v>
+        <v>4189.049999999996</v>
       </c>
       <c r="BT10" t="n">
         <v>4636.31</v>
@@ -5372,7 +5372,7 @@
         <v>12.76</v>
       </c>
       <c r="CB10" t="n">
-        <v>519.7</v>
+        <v>501.5500000000004</v>
       </c>
       <c r="CC10" t="n">
         <v>568.08</v>
@@ -5390,7 +5390,7 @@
         <v>9.859999999999999</v>
       </c>
       <c r="CH10" t="n">
-        <v>990.5</v>
+        <v>962.5000000000009</v>
       </c>
       <c r="CI10" t="n">
         <v>1000.2</v>
@@ -5399,7 +5399,7 @@
         <v>-1.28</v>
       </c>
       <c r="CK10" t="n">
-        <v>30.86000000000013</v>
+        <v>0.279999999998843</v>
       </c>
       <c r="CL10" t="n">
         <v>2834.43</v>
@@ -5408,7 +5408,7 @@
         <v>9.4</v>
       </c>
       <c r="CN10" t="n">
-        <v>2.100000000000023</v>
+        <v>1.600000000000251</v>
       </c>
       <c r="CO10" t="n">
         <v>379.12</v>
@@ -5417,7 +5417,7 @@
         <v>18.15</v>
       </c>
       <c r="CQ10" t="n">
-        <v>11.46999999999991</v>
+        <v>3.099999999999772</v>
       </c>
       <c r="CR10" t="n">
         <v>1088.49</v>
@@ -5426,7 +5426,7 @@
         <v>9.470000000000001</v>
       </c>
       <c r="CT10" t="n">
-        <v>10.88999999999987</v>
+        <v>5.269999999999751</v>
       </c>
       <c r="CU10" t="n">
         <v>1438.56</v>
@@ -5435,7 +5435,7 @@
         <v>10.18</v>
       </c>
       <c r="CW10" t="n">
-        <v>7.430000000000291</v>
+        <v>0.1199999999994503</v>
       </c>
       <c r="CX10" t="n">
         <v>2446.19</v>
@@ -5453,7 +5453,7 @@
         <v>6.45</v>
       </c>
       <c r="DC10" t="n">
-        <v>7.419999999999959</v>
+        <v>1.780000000000072</v>
       </c>
       <c r="DD10" t="n">
         <v>803.6900000000001</v>
@@ -5480,7 +5480,7 @@
         <v>11.76</v>
       </c>
       <c r="DL10" t="n">
-        <v>3077.49</v>
+        <v>3040.29</v>
       </c>
       <c r="DM10" t="n">
         <v>3406.22</v>
@@ -5625,7 +5625,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.019999999999982</v>
+        <v>1.860000000000112</v>
       </c>
       <c r="C11" t="n">
         <v>1864.77</v>
@@ -5634,7 +5634,7 @@
         <v>7.48</v>
       </c>
       <c r="E11" t="n">
-        <v>33.95000000000027</v>
+        <v>5.720000000001182</v>
       </c>
       <c r="F11" t="n">
         <v>4478.17</v>
@@ -5670,7 +5670,7 @@
         <v>12.29</v>
       </c>
       <c r="Q11" t="n">
-        <v>3299.62</v>
+        <v>3227.720000000001</v>
       </c>
       <c r="R11" t="n">
         <v>3575.89</v>
@@ -5679,7 +5679,7 @@
         <v>5.97</v>
       </c>
       <c r="T11" t="n">
-        <v>507.5199999999999</v>
+        <v>500.0399999999995</v>
       </c>
       <c r="U11" t="n">
         <v>615.89</v>
@@ -5688,7 +5688,7 @@
         <v>6.49</v>
       </c>
       <c r="W11" t="n">
-        <v>1371.79</v>
+        <v>1333.32</v>
       </c>
       <c r="X11" t="n">
         <v>1631.31</v>
@@ -5697,7 +5697,7 @@
         <v>14.7</v>
       </c>
       <c r="Z11" t="n">
-        <v>10.55000000000001</v>
+        <v>6.589999999999973</v>
       </c>
       <c r="AA11" t="n">
         <v>479.97</v>
@@ -5706,7 +5706,7 @@
         <v>12.49</v>
       </c>
       <c r="AC11" t="n">
-        <v>2.069999999999936</v>
+        <v>0.09999999999970499</v>
       </c>
       <c r="AD11" t="n">
         <v>1050.73</v>
@@ -5715,7 +5715,7 @@
         <v>12.81</v>
       </c>
       <c r="AF11" t="n">
-        <v>168.47</v>
+        <v>140.35</v>
       </c>
       <c r="AG11" t="n">
         <v>195.85</v>
@@ -5724,7 +5724,7 @@
         <v>11.29</v>
       </c>
       <c r="AI11" t="n">
-        <v>50795.43</v>
+        <v>49979.43999999999</v>
       </c>
       <c r="AJ11" t="n">
         <v>56472.4</v>
@@ -5733,7 +5733,7 @@
         <v>10.17</v>
       </c>
       <c r="AL11" t="n">
-        <v>279.36</v>
+        <v>278.7999999999998</v>
       </c>
       <c r="AM11" t="n">
         <v>318.17</v>
@@ -5742,7 +5742,7 @@
         <v>11.22</v>
       </c>
       <c r="AO11" t="n">
-        <v>2545.94</v>
+        <v>2491.82</v>
       </c>
       <c r="AP11" t="n">
         <v>2777.84</v>
@@ -5751,7 +5751,7 @@
         <v>7.73</v>
       </c>
       <c r="AR11" t="n">
-        <v>14.51999999999998</v>
+        <v>0.9899999999997693</v>
       </c>
       <c r="AS11" t="n">
         <v>1326.55</v>
@@ -5760,7 +5760,7 @@
         <v>13.37</v>
       </c>
       <c r="AU11" t="n">
-        <v>187.54</v>
+        <v>184.2</v>
       </c>
       <c r="AV11" t="n">
         <v>205.83</v>
@@ -5769,7 +5769,7 @@
         <v>8.359999999999999</v>
       </c>
       <c r="AX11" t="n">
-        <v>7.269999999999982</v>
+        <v>4.52999999999993</v>
       </c>
       <c r="AY11" t="n">
         <v>1104.11</v>
@@ -5796,7 +5796,7 @@
         <v>-0.27</v>
       </c>
       <c r="BG11" t="n">
-        <v>525.33</v>
+        <v>517.89</v>
       </c>
       <c r="BH11" t="n">
         <v>555.79</v>
@@ -5805,7 +5805,7 @@
         <v>3.83</v>
       </c>
       <c r="BJ11" t="n">
-        <v>12.61000000000001</v>
+        <v>2.45000000000004</v>
       </c>
       <c r="BK11" t="n">
         <v>1176.75</v>
@@ -5832,7 +5832,7 @@
         <v>6.41</v>
       </c>
       <c r="BS11" t="n">
-        <v>4303.1</v>
+        <v>28.19000000000233</v>
       </c>
       <c r="BT11" t="n">
         <v>4687.92</v>
@@ -5859,7 +5859,7 @@
         <v>12.54</v>
       </c>
       <c r="CB11" t="n">
-        <v>532.42</v>
+        <v>12.71999999999991</v>
       </c>
       <c r="CC11" t="n">
         <v>572.7</v>
@@ -5886,7 +5886,7 @@
         <v>-1.75</v>
       </c>
       <c r="CK11" t="n">
-        <v>23.96000000000004</v>
+        <v>5.420000000000551</v>
       </c>
       <c r="CL11" t="n">
         <v>2849.88</v>
@@ -5895,7 +5895,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="CN11" t="n">
-        <v>320.79</v>
+        <v>312.6399999999999</v>
       </c>
       <c r="CO11" t="n">
         <v>381.31</v>
@@ -5904,7 +5904,7 @@
         <v>18.06</v>
       </c>
       <c r="CQ11" t="n">
-        <v>990.8800000000001</v>
+        <v>957.8400000000004</v>
       </c>
       <c r="CR11" t="n">
         <v>1103.41</v>
@@ -5913,7 +5913,7 @@
         <v>8.380000000000001</v>
       </c>
       <c r="CT11" t="n">
-        <v>7.279999999999973</v>
+        <v>2.010000000000222</v>
       </c>
       <c r="CU11" t="n">
         <v>1454.57</v>
@@ -5922,7 +5922,7 @@
         <v>10.01</v>
       </c>
       <c r="CW11" t="n">
-        <v>7.999999999999549</v>
+        <v>0.5699999999992578</v>
       </c>
       <c r="CX11" t="n">
         <v>2460.97</v>
@@ -5931,7 +5931,7 @@
         <v>8.609999999999999</v>
       </c>
       <c r="CZ11" t="n">
-        <v>223.01</v>
+        <v>222.33</v>
       </c>
       <c r="DA11" t="n">
         <v>236.78</v>
@@ -5940,7 +5940,7 @@
         <v>5.68</v>
       </c>
       <c r="DC11" t="n">
-        <v>717.51</v>
+        <v>696.29</v>
       </c>
       <c r="DD11" t="n">
         <v>809.6900000000001</v>
@@ -5958,7 +5958,7 @@
         <v>7.81</v>
       </c>
       <c r="DI11" t="n">
-        <v>1148.58</v>
+        <v>1128.74</v>
       </c>
       <c r="DJ11" t="n">
         <v>1293.21</v>
@@ -5976,7 +5976,7 @@
         <v>10.49</v>
       </c>
       <c r="DO11" t="n">
-        <v>108.7</v>
+        <v>107.34</v>
       </c>
       <c r="DP11" t="n">
         <v>112.66</v>
@@ -6112,7 +6112,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1723.63</v>
+        <v>1703.29</v>
       </c>
       <c r="C12" t="n">
         <v>1882.19</v>
@@ -6121,7 +6121,7 @@
         <v>8.050000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>4005.54</v>
+        <v>3926.199999999998</v>
       </c>
       <c r="F12" t="n">
         <v>4549.54</v>
@@ -6130,7 +6130,7 @@
         <v>12.45</v>
       </c>
       <c r="H12" t="n">
-        <v>41.93000000000006</v>
+        <v>39.28999999999974</v>
       </c>
       <c r="I12" t="n">
         <v>635.22</v>
@@ -6139,7 +6139,7 @@
         <v>14.47</v>
       </c>
       <c r="K12" t="n">
-        <v>388.44</v>
+        <v>384.32</v>
       </c>
       <c r="L12" t="n">
         <v>455.98</v>
@@ -6157,7 +6157,7 @@
         <v>10.38</v>
       </c>
       <c r="Q12" t="n">
-        <v>3305.34</v>
+        <v>5.720000000000255</v>
       </c>
       <c r="R12" t="n">
         <v>3583.22</v>
@@ -6184,7 +6184,7 @@
         <v>17.73</v>
       </c>
       <c r="Z12" t="n">
-        <v>419.06</v>
+        <v>382.8</v>
       </c>
       <c r="AA12" t="n">
         <v>485.06</v>
@@ -6193,7 +6193,7 @@
         <v>10.69</v>
       </c>
       <c r="AC12" t="n">
-        <v>915.0300000000001</v>
+        <v>906.7500000000003</v>
       </c>
       <c r="AD12" t="n">
         <v>1083.96</v>
@@ -6202,7 +6202,7 @@
         <v>15.83</v>
       </c>
       <c r="AF12" t="n">
-        <v>174.85</v>
+        <v>6.379999999999995</v>
       </c>
       <c r="AG12" t="n">
         <v>197.49</v>
@@ -6211,7 +6211,7 @@
         <v>12.53</v>
       </c>
       <c r="AI12" t="n">
-        <v>50392.27</v>
+        <v>290.7799999999988</v>
       </c>
       <c r="AJ12" t="n">
         <v>56594.81</v>
@@ -6238,7 +6238,7 @@
         <v>8.31</v>
       </c>
       <c r="AR12" t="n">
-        <v>1162.43</v>
+        <v>1117.88</v>
       </c>
       <c r="AS12" t="n">
         <v>1358.16</v>
@@ -6256,7 +6256,7 @@
         <v>8.76</v>
       </c>
       <c r="AX12" t="n">
-        <v>912.3200000000001</v>
+        <v>888.1</v>
       </c>
       <c r="AY12" t="n">
         <v>1109.47</v>
@@ -6265,7 +6265,7 @@
         <v>11.34</v>
       </c>
       <c r="BA12" t="n">
-        <v>261.39</v>
+        <v>261.11</v>
       </c>
       <c r="BB12" t="n">
         <v>316.41</v>
@@ -6292,7 +6292,7 @@
         <v>5.66</v>
       </c>
       <c r="BJ12" t="n">
-        <v>19.81000000000006</v>
+        <v>2.299999999999969</v>
       </c>
       <c r="BK12" t="n">
         <v>1201.04</v>
@@ -6301,7 +6301,7 @@
         <v>24.05</v>
       </c>
       <c r="BM12" t="n">
-        <v>17.10999999999999</v>
+        <v>5.949999999999909</v>
       </c>
       <c r="BN12" t="n">
         <v>172.75</v>
@@ -6310,7 +6310,7 @@
         <v>14.62</v>
       </c>
       <c r="BP12" t="n">
-        <v>1360.73</v>
+        <v>1328.65</v>
       </c>
       <c r="BQ12" t="n">
         <v>1470.23</v>
@@ -6319,7 +6319,7 @@
         <v>3.93</v>
       </c>
       <c r="BS12" t="n">
-        <v>4223.19</v>
+        <v>4166.809999999995</v>
       </c>
       <c r="BT12" t="n">
         <v>4688.55</v>
@@ -6328,7 +6328,7 @@
         <v>8.960000000000001</v>
       </c>
       <c r="BV12" t="n">
-        <v>220.1699999999991</v>
+        <v>212.529999999996</v>
       </c>
       <c r="BW12" t="n">
         <v>5107.3</v>
@@ -6337,7 +6337,7 @@
         <v>18.02</v>
       </c>
       <c r="BY12" t="n">
-        <v>2817.82</v>
+        <v>2806.02</v>
       </c>
       <c r="BZ12" t="n">
         <v>3306.38</v>
@@ -6346,7 +6346,7 @@
         <v>11.44</v>
       </c>
       <c r="CB12" t="n">
-        <v>492.17</v>
+        <v>454.0100000000003</v>
       </c>
       <c r="CC12" t="n">
         <v>576.42</v>
@@ -6355,7 +6355,7 @@
         <v>8.26</v>
       </c>
       <c r="CE12" t="n">
-        <v>35.87999999999988</v>
+        <v>4.759999999999998</v>
       </c>
       <c r="CF12" t="n">
         <v>1410.65</v>
@@ -6373,7 +6373,7 @@
         <v>8.789999999999999</v>
       </c>
       <c r="CK12" t="n">
-        <v>2502.97</v>
+        <v>2425.67</v>
       </c>
       <c r="CL12" t="n">
         <v>2871.08</v>
@@ -6391,7 +6391,7 @@
         <v>17.25</v>
       </c>
       <c r="CQ12" t="n">
-        <v>987.04</v>
+        <v>7.629999999999768</v>
       </c>
       <c r="CR12" t="n">
         <v>1100.84</v>
@@ -6400,7 +6400,7 @@
         <v>8.5</v>
       </c>
       <c r="CT12" t="n">
-        <v>1264.41</v>
+        <v>1245.83</v>
       </c>
       <c r="CU12" t="n">
         <v>1450.85</v>
@@ -6409,7 +6409,7 @@
         <v>9.130000000000001</v>
       </c>
       <c r="CW12" t="n">
-        <v>2097.6</v>
+        <v>2087.890000000003</v>
       </c>
       <c r="CX12" t="n">
         <v>2485.16</v>
@@ -6427,7 +6427,7 @@
         <v>6.71</v>
       </c>
       <c r="DC12" t="n">
-        <v>702.1</v>
+        <v>2.620000000000005</v>
       </c>
       <c r="DD12" t="n">
         <v>800.5700000000001</v>
@@ -6436,7 +6436,7 @@
         <v>10.43</v>
       </c>
       <c r="DF12" t="n">
-        <v>1271.41</v>
+        <v>1261.01</v>
       </c>
       <c r="DG12" t="n">
         <v>1463.88</v>
@@ -6454,7 +6454,7 @@
         <v>10.3</v>
       </c>
       <c r="DL12" t="n">
-        <v>2960.6</v>
+        <v>2935.48</v>
       </c>
       <c r="DM12" t="n">
         <v>3405.5</v>
@@ -6617,7 +6617,7 @@
         <v>14.05</v>
       </c>
       <c r="H13" t="n">
-        <v>526.3699999999999</v>
+        <v>362.6100000000001</v>
       </c>
       <c r="I13" t="n">
         <v>607.88</v>
@@ -6635,7 +6635,7 @@
         <v>11.77</v>
       </c>
       <c r="N13" t="n">
-        <v>1.45</v>
+        <v>1.21</v>
       </c>
       <c r="O13" t="n">
         <v>2.03</v>
@@ -6644,7 +6644,7 @@
         <v>23.78</v>
       </c>
       <c r="Q13" t="n">
-        <v>63.00999999999976</v>
+        <v>45.84999999999899</v>
       </c>
       <c r="R13" t="n">
         <v>3479.26</v>
@@ -6689,7 +6689,7 @@
         <v>11.53</v>
       </c>
       <c r="AF13" t="n">
-        <v>6.610000000000014</v>
+        <v>0.2300000000000191</v>
       </c>
       <c r="AG13" t="n">
         <v>196.12</v>
@@ -6698,7 +6698,7 @@
         <v>12.17</v>
       </c>
       <c r="AI13" t="n">
-        <v>1750.32</v>
+        <v>1459.540000000001</v>
       </c>
       <c r="AJ13" t="n">
         <v>54850.11</v>
@@ -6779,7 +6779,7 @@
         <v>9.58</v>
       </c>
       <c r="BJ13" t="n">
-        <v>37.26999999999998</v>
+        <v>3.209999999999892</v>
       </c>
       <c r="BK13" t="n">
         <v>1347.25</v>
@@ -6878,7 +6878,7 @@
         <v>11.85</v>
       </c>
       <c r="CQ13" t="n">
-        <v>25.62</v>
+        <v>10.36000000000046</v>
       </c>
       <c r="CR13" t="n">
         <v>1023.69</v>
@@ -7086,7 +7086,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.769999999999982</v>
+        <v>1.980000000000018</v>
       </c>
       <c r="C14" t="n">
         <v>1848.2</v>
@@ -7122,7 +7122,7 @@
         <v>11.8</v>
       </c>
       <c r="N14" t="n">
-        <v>1.61</v>
+        <v>0.1600000000000001</v>
       </c>
       <c r="O14" t="n">
         <v>2.08</v>
@@ -7140,7 +7140,7 @@
         <v>5.1</v>
       </c>
       <c r="T14" t="n">
-        <v>459.08</v>
+        <v>369.84</v>
       </c>
       <c r="U14" t="n">
         <v>492.8</v>
@@ -7176,7 +7176,7 @@
         <v>11.6</v>
       </c>
       <c r="AF14" t="n">
-        <v>5.389999999999986</v>
+        <v>4.929999999999948</v>
       </c>
       <c r="AG14" t="n">
         <v>202.12</v>
@@ -7266,7 +7266,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="BJ14" t="n">
-        <v>12.94000000000005</v>
+        <v>2.680000000000179</v>
       </c>
       <c r="BK14" t="n">
         <v>1395.36</v>
@@ -7275,7 +7275,7 @@
         <v>33.1</v>
       </c>
       <c r="BM14" t="n">
-        <v>168.59</v>
+        <v>139.19</v>
       </c>
       <c r="BN14" t="n">
         <v>214.13</v>
@@ -7329,7 +7329,7 @@
         <v>10.4</v>
       </c>
       <c r="CE14" t="n">
-        <v>1350.86</v>
+        <v>1318.82</v>
       </c>
       <c r="CF14" t="n">
         <v>1267.22</v>
@@ -7338,7 +7338,7 @@
         <v>-9.300000000000001</v>
       </c>
       <c r="CH14" t="n">
-        <v>24.55999999999995</v>
+        <v>2.119999999999898</v>
       </c>
       <c r="CI14" t="n">
         <v>907.62</v>
@@ -7356,7 +7356,7 @@
         <v>6.8</v>
       </c>
       <c r="CN14" t="n">
-        <v>334.8799999999999</v>
+        <v>324.5599999999995</v>
       </c>
       <c r="CO14" t="n">
         <v>396.4</v>
@@ -7401,7 +7401,7 @@
         <v>7.2</v>
       </c>
       <c r="DC14" t="n">
-        <v>700.2800000000001</v>
+        <v>590.0400000000003</v>
       </c>
       <c r="DD14" t="n">
         <v>791.75</v>
@@ -7573,7 +7573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>16.43000000000006</v>
+        <v>4.720000000000026</v>
       </c>
       <c r="C15" t="n">
         <v>1858.45</v>
@@ -7591,7 +7591,7 @@
         <v>12.2</v>
       </c>
       <c r="H15" t="n">
-        <v>8.210000000000031</v>
+        <v>0.2499999999999947</v>
       </c>
       <c r="I15" t="n">
         <v>630.98</v>
@@ -7618,7 +7618,7 @@
         <v>31</v>
       </c>
       <c r="Q15" t="n">
-        <v>3357.74</v>
+        <v>3242.38</v>
       </c>
       <c r="R15" t="n">
         <v>3624.25</v>
@@ -7636,7 +7636,7 @@
         <v>3.5</v>
       </c>
       <c r="W15" t="n">
-        <v>32.73999999999979</v>
+        <v>19.41999999999917</v>
       </c>
       <c r="X15" t="n">
         <v>1741.24</v>
@@ -7654,7 +7654,7 @@
         <v>8.4</v>
       </c>
       <c r="AC15" t="n">
-        <v>15.98000000000001</v>
+        <v>1.360000000000118</v>
       </c>
       <c r="AD15" t="n">
         <v>1070.14</v>
@@ -7699,7 +7699,7 @@
         <v>8.4</v>
       </c>
       <c r="AR15" t="n">
-        <v>15.34999999999991</v>
+        <v>0.7899999999999654</v>
       </c>
       <c r="AS15" t="n">
         <v>1334.32</v>
@@ -7726,7 +7726,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="BA15" t="n">
-        <v>2.840000000000032</v>
+        <v>1.200000000000046</v>
       </c>
       <c r="BB15" t="n">
         <v>309.48</v>
@@ -7735,7 +7735,7 @@
         <v>10.8</v>
       </c>
       <c r="BD15" t="n">
-        <v>154.32</v>
+        <v>145.16</v>
       </c>
       <c r="BE15" t="n">
         <v>161.77</v>
@@ -7753,7 +7753,7 @@
         <v>7.3</v>
       </c>
       <c r="BJ15" t="n">
-        <v>7.990000000000011</v>
+        <v>5.309999999999832</v>
       </c>
       <c r="BK15" t="n">
         <v>1440.82</v>
@@ -7762,7 +7762,7 @@
         <v>35.8</v>
       </c>
       <c r="BM15" t="n">
-        <v>173.27</v>
+        <v>4.680000000000007</v>
       </c>
       <c r="BN15" t="n">
         <v>215.07</v>
@@ -7771,7 +7771,7 @@
         <v>22.2</v>
       </c>
       <c r="BP15" t="n">
-        <v>1413.37</v>
+        <v>1338.13</v>
       </c>
       <c r="BQ15" t="n">
         <v>1537.31</v>
@@ -7825,7 +7825,7 @@
         <v>-7.3</v>
       </c>
       <c r="CH15" t="n">
-        <v>6.069999999999943</v>
+        <v>1.830000000000147</v>
       </c>
       <c r="CI15" t="n">
         <v>906.37</v>
@@ -7861,7 +7861,7 @@
         <v>4.7</v>
       </c>
       <c r="CT15" t="n">
-        <v>21.62999999999988</v>
+        <v>8.469999999999802</v>
       </c>
       <c r="CU15" t="n">
         <v>1466.22</v>
@@ -7897,7 +7897,7 @@
         <v>10.1</v>
       </c>
       <c r="DF15" t="n">
-        <v>18.16000000000009</v>
+        <v>6.870000000000129</v>
       </c>
       <c r="DG15" t="n">
         <v>1445.79</v>
@@ -7915,7 +7915,7 @@
         <v>5.9</v>
       </c>
       <c r="DL15" t="n">
-        <v>39.76999999999998</v>
+        <v>15.16999999999962</v>
       </c>
       <c r="DM15" t="n">
         <v>3303.8</v>
@@ -8060,7 +8060,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.50999999999999</v>
+        <v>3.079999999999931</v>
       </c>
       <c r="C16" t="n">
         <v>1884.78</v>
@@ -8078,7 +8078,7 @@
         <v>12.6</v>
       </c>
       <c r="H16" t="n">
-        <v>6.599999999999909</v>
+        <v>1.869999999999907</v>
       </c>
       <c r="I16" t="n">
         <v>636.55</v>
@@ -8087,7 +8087,7 @@
         <v>7.1</v>
       </c>
       <c r="K16" t="n">
-        <v>5.439999999999998</v>
+        <v>0.7999999999999061</v>
       </c>
       <c r="L16" t="n">
         <v>470.49</v>
@@ -8096,7 +8096,7 @@
         <v>11.1</v>
       </c>
       <c r="N16" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="O16" t="n">
         <v>2.11</v>
@@ -8114,7 +8114,7 @@
         <v>5.7</v>
       </c>
       <c r="T16" t="n">
-        <v>477.41</v>
+        <v>440.05</v>
       </c>
       <c r="U16" t="n">
         <v>503.81</v>
@@ -8132,7 +8132,7 @@
         <v>11.8</v>
       </c>
       <c r="Z16" t="n">
-        <v>10.94</v>
+        <v>1.759999999999993</v>
       </c>
       <c r="AA16" t="n">
         <v>488.94</v>
@@ -8141,7 +8141,7 @@
         <v>9.4</v>
       </c>
       <c r="AC16" t="n">
-        <v>12.86000000000001</v>
+        <v>1.46999999999971</v>
       </c>
       <c r="AD16" t="n">
         <v>1098.99</v>
@@ -8150,7 +8150,7 @@
         <v>12.4</v>
       </c>
       <c r="AF16" t="n">
-        <v>186.55</v>
+        <v>171.07</v>
       </c>
       <c r="AG16" t="n">
         <v>211.91</v>
@@ -8168,7 +8168,7 @@
         <v>8</v>
       </c>
       <c r="AL16" t="n">
-        <v>5.370000000000005</v>
+        <v>1.529999999999861</v>
       </c>
       <c r="AM16" t="n">
         <v>319</v>
@@ -8177,7 +8177,7 @@
         <v>9.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>18.92000000000007</v>
+        <v>4.010000000000669</v>
       </c>
       <c r="AP16" t="n">
         <v>2862.9</v>
@@ -8186,7 +8186,7 @@
         <v>8.6</v>
       </c>
       <c r="AR16" t="n">
-        <v>9.1400000000001</v>
+        <v>0.2800000000001965</v>
       </c>
       <c r="AS16" t="n">
         <v>1341.43</v>
@@ -8195,7 +8195,7 @@
         <v>6</v>
       </c>
       <c r="AU16" t="n">
-        <v>2.02000000000001</v>
+        <v>1.779999999999886</v>
       </c>
       <c r="AV16" t="n">
         <v>197.06</v>
@@ -8204,7 +8204,7 @@
         <v>4.5</v>
       </c>
       <c r="AX16" t="n">
-        <v>13.08999999999992</v>
+        <v>6.009999999999879</v>
       </c>
       <c r="AY16" t="n">
         <v>1065.2</v>
@@ -8213,7 +8213,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="BA16" t="n">
-        <v>1.95999999999998</v>
+        <v>0.7599999999999341</v>
       </c>
       <c r="BB16" t="n">
         <v>314.1</v>
@@ -8231,7 +8231,7 @@
         <v>4</v>
       </c>
       <c r="BG16" t="n">
-        <v>5.420000000000073</v>
+        <v>2.540000000000078</v>
       </c>
       <c r="BH16" t="n">
         <v>563.98</v>
@@ -8276,7 +8276,7 @@
         <v>5.4</v>
       </c>
       <c r="BV16" t="n">
-        <v>119.0500000000002</v>
+        <v>24.73000000000051</v>
       </c>
       <c r="BW16" t="n">
         <v>5265.49</v>
@@ -8294,7 +8294,7 @@
         <v>9.5</v>
       </c>
       <c r="CB16" t="n">
-        <v>8.120000000000005</v>
+        <v>4.049999999999955</v>
       </c>
       <c r="CC16" t="n">
         <v>588.88</v>
@@ -8303,7 +8303,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="CE16" t="n">
-        <v>1347.53</v>
+        <v>1210.97</v>
       </c>
       <c r="CF16" t="n">
         <v>1290.04</v>
@@ -8312,7 +8312,7 @@
         <v>-7.4</v>
       </c>
       <c r="CH16" t="n">
-        <v>1046.2</v>
+        <v>1028.28</v>
       </c>
       <c r="CI16" t="n">
         <v>928.95</v>
@@ -8339,7 +8339,7 @@
         <v>13.2</v>
       </c>
       <c r="CQ16" t="n">
-        <v>1027.65</v>
+        <v>995.8099999999999</v>
       </c>
       <c r="CR16" t="n">
         <v>1082.54</v>
@@ -8348,7 +8348,7 @@
         <v>4.4</v>
       </c>
       <c r="CT16" t="n">
-        <v>21.19000000000005</v>
+        <v>4.250000000000448</v>
       </c>
       <c r="CU16" t="n">
         <v>1498.02</v>
@@ -8366,7 +8366,7 @@
         <v>10</v>
       </c>
       <c r="CZ16" t="n">
-        <v>215.62</v>
+        <v>209.18</v>
       </c>
       <c r="DA16" t="n">
         <v>232.08</v>
@@ -8384,7 +8384,7 @@
         <v>10.3</v>
       </c>
       <c r="DF16" t="n">
-        <v>8.450000000000045</v>
+        <v>1.579999999999917</v>
       </c>
       <c r="DG16" t="n">
         <v>1460.12</v>
@@ -8411,7 +8411,7 @@
         <v>6.6</v>
       </c>
       <c r="DO16" t="n">
-        <v>1.849999999999994</v>
+        <v>0.4099999999999941</v>
       </c>
       <c r="DP16" t="n">
         <v>120.47</v>
@@ -8547,7 +8547,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>10.70000000000005</v>
+        <v>1.460000000000258</v>
       </c>
       <c r="C17" t="n">
         <v>1917.19</v>
@@ -8574,7 +8574,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>8.849999999999962</v>
+        <v>0.2900000000000129</v>
       </c>
       <c r="L17" t="n">
         <v>480.95</v>
@@ -8628,7 +8628,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.730000000000018</v>
+        <v>1.710000000000244</v>
       </c>
       <c r="AD17" t="n">
         <v>1113.91</v>
@@ -8655,7 +8655,7 @@
         <v>8.1</v>
       </c>
       <c r="AL17" t="n">
-        <v>3.239999999999952</v>
+        <v>0.7500000000000546</v>
       </c>
       <c r="AM17" t="n">
         <v>324.73</v>
@@ -8664,7 +8664,7 @@
         <v>9.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>7.610000000000131</v>
+        <v>3.599999999999462</v>
       </c>
       <c r="AP17" t="n">
         <v>2900.52</v>
@@ -8673,7 +8673,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AR17" t="n">
-        <v>16.84999999999991</v>
+        <v>6.359999999999451</v>
       </c>
       <c r="AS17" t="n">
         <v>1370.6</v>
@@ -8682,7 +8682,7 @@
         <v>7.5</v>
       </c>
       <c r="AU17" t="n">
-        <v>1.930000000000007</v>
+        <v>0.03000000000005909</v>
       </c>
       <c r="AV17" t="n">
         <v>198.38</v>
@@ -8700,7 +8700,7 @@
         <v>8.5</v>
       </c>
       <c r="BA17" t="n">
-        <v>3.530000000000029</v>
+        <v>0.05000000000018079</v>
       </c>
       <c r="BB17" t="n">
         <v>318.5</v>
@@ -8718,7 +8718,7 @@
         <v>2.8</v>
       </c>
       <c r="BG17" t="n">
-        <v>513.1899999999999</v>
+        <v>500.1499999999996</v>
       </c>
       <c r="BH17" t="n">
         <v>573.0599999999999</v>
@@ -8727,7 +8727,7 @@
         <v>7.8</v>
       </c>
       <c r="BJ17" t="n">
-        <v>2.740000000000009</v>
+        <v>0.4200000000003008</v>
       </c>
       <c r="BK17" t="n">
         <v>1446.28</v>
@@ -8736,7 +8736,7 @@
         <v>33.6</v>
       </c>
       <c r="BM17" t="n">
-        <v>167.87</v>
+        <v>150.43</v>
       </c>
       <c r="BN17" t="n">
         <v>197.97</v>
@@ -8745,7 +8745,7 @@
         <v>11.5</v>
       </c>
       <c r="BP17" t="n">
-        <v>9.320000000000164</v>
+        <v>1.040000000000419</v>
       </c>
       <c r="BQ17" t="n">
         <v>1537.48</v>
@@ -8754,7 +8754,7 @@
         <v>7.2</v>
       </c>
       <c r="BS17" t="n">
-        <v>88.68999999999963</v>
+        <v>17.00999999999934</v>
       </c>
       <c r="BT17" t="n">
         <v>5065.04</v>
@@ -8763,7 +8763,7 @@
         <v>6.3</v>
       </c>
       <c r="BV17" t="n">
-        <v>4825.58</v>
+        <v>4585.179999999998</v>
       </c>
       <c r="BW17" t="n">
         <v>5386.52</v>
@@ -8799,7 +8799,7 @@
         <v>-7.3</v>
       </c>
       <c r="CH17" t="n">
-        <v>1061.54</v>
+        <v>15.33999999999992</v>
       </c>
       <c r="CI17" t="n">
         <v>939.97</v>
@@ -8835,7 +8835,7 @@
         <v>6.9</v>
       </c>
       <c r="CT17" t="n">
-        <v>19.50999999999999</v>
+        <v>2.539999999999294</v>
       </c>
       <c r="CU17" t="n">
         <v>1529.23</v>
@@ -8862,7 +8862,7 @@
         <v>7.9</v>
       </c>
       <c r="DC17" t="n">
-        <v>738.98</v>
+        <v>698.54</v>
       </c>
       <c r="DD17" t="n">
         <v>805.47</v>
@@ -8871,7 +8871,7 @@
         <v>7.3</v>
       </c>
       <c r="DF17" t="n">
-        <v>18.42999999999984</v>
+        <v>1.529999999999749</v>
       </c>
       <c r="DG17" t="n">
         <v>1484.8</v>
@@ -8880,7 +8880,7 @@
         <v>10.1</v>
       </c>
       <c r="DI17" t="n">
-        <v>7.800000000000182</v>
+        <v>2.320000000000389</v>
       </c>
       <c r="DJ17" t="n">
         <v>1307.23</v>
@@ -8889,7 +8889,7 @@
         <v>6.4</v>
       </c>
       <c r="DL17" t="n">
-        <v>6.359999999999669</v>
+        <v>0.07999999999946894</v>
       </c>
       <c r="DM17" t="n">
         <v>3339.29</v>
@@ -8898,7 +8898,7 @@
         <v>6.5</v>
       </c>
       <c r="DO17" t="n">
-        <v>0.8699999999999903</v>
+        <v>0.09999999999999631</v>
       </c>
       <c r="DP17" t="n">
         <v>124.76</v>
@@ -9043,7 +9043,7 @@
         <v>8.1</v>
       </c>
       <c r="E18" t="n">
-        <v>25.21000000000004</v>
+        <v>1.340000000000149</v>
       </c>
       <c r="F18" t="n">
         <v>5003.26</v>
@@ -9052,7 +9052,7 @@
         <v>13.9</v>
       </c>
       <c r="H18" t="n">
-        <v>600.0599999999999</v>
+        <v>595.0999999999995</v>
       </c>
       <c r="I18" t="n">
         <v>656.63</v>
@@ -9061,7 +9061,7 @@
         <v>7.8</v>
       </c>
       <c r="K18" t="n">
-        <v>426.33</v>
+        <v>413.4900000000001</v>
       </c>
       <c r="L18" t="n">
         <v>487.74</v>
@@ -9079,7 +9079,7 @@
         <v>42.8</v>
       </c>
       <c r="Q18" t="n">
-        <v>37.66999999999961</v>
+        <v>29.70999999999865</v>
       </c>
       <c r="R18" t="n">
         <v>3708.17</v>
@@ -9097,7 +9097,7 @@
         <v>3.1</v>
       </c>
       <c r="W18" t="n">
-        <v>15.31000000000018</v>
+        <v>3.550000000000639</v>
       </c>
       <c r="X18" t="n">
         <v>1762.76</v>
@@ -9106,7 +9106,7 @@
         <v>12.2</v>
       </c>
       <c r="Z18" t="n">
-        <v>5.549999999999955</v>
+        <v>1.139999999999874</v>
       </c>
       <c r="AA18" t="n">
         <v>505.62</v>
@@ -9115,7 +9115,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>14.33000000000004</v>
+        <v>1.059999999999949</v>
       </c>
       <c r="AD18" t="n">
         <v>1133.5</v>
@@ -9124,7 +9124,7 @@
         <v>12</v>
       </c>
       <c r="AF18" t="n">
-        <v>2.949999999999989</v>
+        <v>2.029999999999917</v>
       </c>
       <c r="AG18" t="n">
         <v>205.31</v>
@@ -9142,7 +9142,7 @@
         <v>7.9</v>
       </c>
       <c r="AL18" t="n">
-        <v>4.480000000000075</v>
+        <v>1.240000000000123</v>
       </c>
       <c r="AM18" t="n">
         <v>331.1</v>
@@ -9160,7 +9160,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="AR18" t="n">
-        <v>8.809999999999945</v>
+        <v>1.100000000000136</v>
       </c>
       <c r="AS18" t="n">
         <v>1358.18</v>
@@ -9169,7 +9169,7 @@
         <v>4.4</v>
       </c>
       <c r="AU18" t="n">
-        <v>1.089999999999975</v>
+        <v>1.059999999999916</v>
       </c>
       <c r="AV18" t="n">
         <v>200.25</v>
@@ -9178,7 +9178,7 @@
         <v>4</v>
       </c>
       <c r="AX18" t="n">
-        <v>11.66000000000008</v>
+        <v>0.06000000000017325</v>
       </c>
       <c r="AY18" t="n">
         <v>1110.72</v>
@@ -9187,7 +9187,7 @@
         <v>10.3</v>
       </c>
       <c r="BA18" t="n">
-        <v>1.350000000000023</v>
+        <v>0.5399999999999081</v>
       </c>
       <c r="BB18" t="n">
         <v>322.88</v>
@@ -9196,7 +9196,7 @@
         <v>10.9</v>
       </c>
       <c r="BD18" t="n">
-        <v>158</v>
+        <v>152.68</v>
       </c>
       <c r="BE18" t="n">
         <v>159.84</v>
@@ -9214,7 +9214,7 @@
         <v>11.1</v>
       </c>
       <c r="BJ18" t="n">
-        <v>28.43000000000006</v>
+        <v>20.94999999999958</v>
       </c>
       <c r="BK18" t="n">
         <v>1452.97</v>
@@ -9241,7 +9241,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="BS18" t="n">
-        <v>79.85000000000036</v>
+        <v>9.080000000000808</v>
       </c>
       <c r="BT18" t="n">
         <v>5011.92</v>
@@ -9277,7 +9277,7 @@
         <v>10.5</v>
       </c>
       <c r="CE18" t="n">
-        <v>1378.08</v>
+        <v>1264.68</v>
       </c>
       <c r="CF18" t="n">
         <v>1268.36</v>
@@ -9286,7 +9286,7 @@
         <v>-10</v>
       </c>
       <c r="CH18" t="n">
-        <v>1052.7</v>
+        <v>1006.68</v>
       </c>
       <c r="CI18" t="n">
         <v>932.86</v>
@@ -9313,7 +9313,7 @@
         <v>12.9</v>
       </c>
       <c r="CQ18" t="n">
-        <v>1033.45</v>
+        <v>959.2899999999994</v>
       </c>
       <c r="CR18" t="n">
         <v>1117.64</v>
@@ -9331,7 +9331,7 @@
         <v>10.1</v>
       </c>
       <c r="CW18" t="n">
-        <v>15.92999999999984</v>
+        <v>3.899999999999184</v>
       </c>
       <c r="CX18" t="n">
         <v>2532.69</v>
@@ -9358,7 +9358,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="DF18" t="n">
-        <v>1348.9</v>
+        <v>1317.43</v>
       </c>
       <c r="DG18" t="n">
         <v>1497.73</v>
@@ -9376,7 +9376,7 @@
         <v>6.7</v>
       </c>
       <c r="DL18" t="n">
-        <v>33.26999999999998</v>
+        <v>26.6700000000019</v>
       </c>
       <c r="DM18" t="n">
         <v>3351.82</v>
@@ -9385,7 +9385,7 @@
         <v>6.5</v>
       </c>
       <c r="DO18" t="n">
-        <v>118.11</v>
+        <v>114.63</v>
       </c>
       <c r="DP18" t="n">
         <v>125.3</v>
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1795.11</v>
+        <v>1788.95</v>
       </c>
       <c r="C19" t="n">
         <v>1958.13</v>
@@ -9530,7 +9530,7 @@
         <v>8</v>
       </c>
       <c r="E19" t="n">
-        <v>29.8100000000004</v>
+        <v>0.579999999999913</v>
       </c>
       <c r="F19" t="n">
         <v>5059.82</v>
@@ -9557,7 +9557,7 @@
         <v>11</v>
       </c>
       <c r="N19" t="n">
-        <v>1.24</v>
+        <v>0.07000000000000028</v>
       </c>
       <c r="O19" t="n">
         <v>2.11</v>
@@ -9575,7 +9575,7 @@
         <v>6.9</v>
       </c>
       <c r="T19" t="n">
-        <v>493.33</v>
+        <v>483.05</v>
       </c>
       <c r="U19" t="n">
         <v>508.76</v>
@@ -9584,7 +9584,7 @@
         <v>2.6</v>
       </c>
       <c r="W19" t="n">
-        <v>13.75</v>
+        <v>2.359999999999671</v>
       </c>
       <c r="X19" t="n">
         <v>1769.98</v>
@@ -9593,7 +9593,7 @@
         <v>11.3</v>
       </c>
       <c r="Z19" t="n">
-        <v>3.639999999999986</v>
+        <v>1.030000000000085</v>
       </c>
       <c r="AA19" t="n">
         <v>508.91</v>
@@ -9602,7 +9602,7 @@
         <v>8.4</v>
       </c>
       <c r="AC19" t="n">
-        <v>12.89999999999986</v>
+        <v>1.699999999999818</v>
       </c>
       <c r="AD19" t="n">
         <v>1145.2</v>
@@ -9611,7 +9611,7 @@
         <v>11.6</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.119999999999976</v>
+        <v>0.1699999999999871</v>
       </c>
       <c r="AG19" t="n">
         <v>211.67</v>
@@ -9620,7 +9620,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AI19" t="n">
-        <v>426.1399999999994</v>
+        <v>92.74999999998559</v>
       </c>
       <c r="AJ19" t="n">
         <v>59745.77</v>
@@ -9629,7 +9629,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="AL19" t="n">
-        <v>2.649999999999972</v>
+        <v>0.1699999999997259</v>
       </c>
       <c r="AM19" t="n">
         <v>339.06</v>
@@ -9638,7 +9638,7 @@
         <v>10.2</v>
       </c>
       <c r="AO19" t="n">
-        <v>10.42999999999984</v>
+        <v>3.989999999999785</v>
       </c>
       <c r="AP19" t="n">
         <v>2953.09</v>
@@ -9647,7 +9647,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AR19" t="n">
-        <v>1291.94</v>
+        <v>1272.12</v>
       </c>
       <c r="AS19" t="n">
         <v>1368.67</v>
@@ -9656,7 +9656,7 @@
         <v>4.5</v>
       </c>
       <c r="AU19" t="n">
-        <v>1.880000000000052</v>
+        <v>0.7900000000000771</v>
       </c>
       <c r="AV19" t="n">
         <v>201.67</v>
@@ -9665,7 +9665,7 @@
         <v>4.1</v>
       </c>
       <c r="AX19" t="n">
-        <v>4.309999999999945</v>
+        <v>1.349999999999795</v>
       </c>
       <c r="AY19" t="n">
         <v>1127.44</v>
@@ -9692,7 +9692,7 @@
         <v>1.2</v>
       </c>
       <c r="BG19" t="n">
-        <v>18.17999999999995</v>
+        <v>12.65999999999998</v>
       </c>
       <c r="BH19" t="n">
         <v>581.85</v>
@@ -9746,7 +9746,7 @@
         <v>9.5</v>
       </c>
       <c r="BY19" t="n">
-        <v>20.01000000000022</v>
+        <v>3.140000000000327</v>
       </c>
       <c r="BZ19" t="n">
         <v>3435.81</v>
@@ -9755,7 +9755,7 @@
         <v>8</v>
       </c>
       <c r="CB19" t="n">
-        <v>8.870000000000115</v>
+        <v>2.410000000000305</v>
       </c>
       <c r="CC19" t="n">
         <v>628.7</v>
@@ -9764,7 +9764,7 @@
         <v>12.4</v>
       </c>
       <c r="CE19" t="n">
-        <v>1397.45</v>
+        <v>19.37000000000012</v>
       </c>
       <c r="CF19" t="n">
         <v>1257.29</v>
@@ -9773,7 +9773,7 @@
         <v>-10.6</v>
       </c>
       <c r="CH19" t="n">
-        <v>1038.33</v>
+        <v>0.9700000000000273</v>
       </c>
       <c r="CI19" t="n">
         <v>951.78</v>
@@ -9782,7 +9782,7 @@
         <v>-9.6</v>
       </c>
       <c r="CK19" t="n">
-        <v>20.84999999999991</v>
+        <v>5.05000000000063</v>
       </c>
       <c r="CL19" t="n">
         <v>2951.04</v>
@@ -9791,7 +9791,7 @@
         <v>8.4</v>
       </c>
       <c r="CN19" t="n">
-        <v>1.53000000000003</v>
+        <v>0.8500000000001939</v>
       </c>
       <c r="CO19" t="n">
         <v>421.83</v>
@@ -9800,7 +9800,7 @@
         <v>13.8</v>
       </c>
       <c r="CQ19" t="n">
-        <v>1051.93</v>
+        <v>18.48000000000002</v>
       </c>
       <c r="CR19" t="n">
         <v>1127.4</v>
@@ -9809,7 +9809,7 @@
         <v>7.2</v>
       </c>
       <c r="CT19" t="n">
-        <v>13.70000000000005</v>
+        <v>13.21999999999957</v>
       </c>
       <c r="CU19" t="n">
         <v>1562.01</v>
@@ -9818,7 +9818,7 @@
         <v>10</v>
       </c>
       <c r="CW19" t="n">
-        <v>14.01000000000021</v>
+        <v>2.09000000000059</v>
       </c>
       <c r="CX19" t="n">
         <v>2560.43</v>
@@ -9827,7 +9827,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="CZ19" t="n">
-        <v>229.73</v>
+        <v>222.49</v>
       </c>
       <c r="DA19" t="n">
         <v>239.35</v>
@@ -9854,7 +9854,7 @@
         <v>9.4</v>
       </c>
       <c r="DI19" t="n">
-        <v>3.789999999999964</v>
+        <v>0.7900000000006453</v>
       </c>
       <c r="DJ19" t="n">
         <v>1324.8</v>
@@ -9863,7 +9863,7 @@
         <v>6.4</v>
       </c>
       <c r="DL19" t="n">
-        <v>31.94000000000005</v>
+        <v>5.029999999999742</v>
       </c>
       <c r="DM19" t="n">
         <v>3383.89</v>
@@ -9872,7 +9872,7 @@
         <v>6</v>
       </c>
       <c r="DO19" t="n">
-        <v>118.73</v>
+        <v>0.6200000000000045</v>
       </c>
       <c r="DP19" t="n">
         <v>126.18</v>
@@ -10017,7 +10017,7 @@
         <v>8.1</v>
       </c>
       <c r="E20" t="n">
-        <v>21.92000000000007</v>
+        <v>12.13999999999944</v>
       </c>
       <c r="F20" t="n">
         <v>5102.09</v>
@@ -10026,7 +10026,7 @@
         <v>14.1</v>
       </c>
       <c r="H20" t="n">
-        <v>6.080000000000041</v>
+        <v>2.32000000000005</v>
       </c>
       <c r="I20" t="n">
         <v>682.29</v>
@@ -10035,7 +10035,7 @@
         <v>11.5</v>
       </c>
       <c r="K20" t="n">
-        <v>9.419999999999957</v>
+        <v>1.719999999999911</v>
       </c>
       <c r="L20" t="n">
         <v>490.46</v>
@@ -10044,7 +10044,7 @@
         <v>10.3</v>
       </c>
       <c r="N20" t="n">
-        <v>1.43</v>
+        <v>0.1199999999999996</v>
       </c>
       <c r="O20" t="n">
         <v>2.1</v>
@@ -10053,7 +10053,7 @@
         <v>29</v>
       </c>
       <c r="Q20" t="n">
-        <v>25.39000000000033</v>
+        <v>3.230000000000484</v>
       </c>
       <c r="R20" t="n">
         <v>3792.63</v>
@@ -10071,7 +10071,7 @@
         <v>3</v>
       </c>
       <c r="W20" t="n">
-        <v>1581.28</v>
+        <v>1549.06</v>
       </c>
       <c r="X20" t="n">
         <v>1781.01</v>
@@ -10089,7 +10089,7 @@
         <v>8</v>
       </c>
       <c r="AC20" t="n">
-        <v>1020.99</v>
+        <v>986.1900000000005</v>
       </c>
       <c r="AD20" t="n">
         <v>1166.81</v>
@@ -10098,7 +10098,7 @@
         <v>12.3</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.8400000000000318</v>
+        <v>0.3300000000000706</v>
       </c>
       <c r="AG20" t="n">
         <v>212.93</v>
@@ -10107,7 +10107,7 @@
         <v>8.1</v>
       </c>
       <c r="AI20" t="n">
-        <v>377.7999999999956</v>
+        <v>62.79000000000076</v>
       </c>
       <c r="AJ20" t="n">
         <v>60204.1</v>
@@ -10116,7 +10116,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="AL20" t="n">
-        <v>307.4</v>
+        <v>300.5200000000005</v>
       </c>
       <c r="AM20" t="n">
         <v>342.59</v>
@@ -10152,7 +10152,7 @@
         <v>5.3</v>
       </c>
       <c r="AX20" t="n">
-        <v>8.740000000000004</v>
+        <v>0.1200000000001129</v>
       </c>
       <c r="AY20" t="n">
         <v>1142.19</v>
@@ -10161,7 +10161,7 @@
         <v>11.3</v>
       </c>
       <c r="BA20" t="n">
-        <v>4.120000000000061</v>
+        <v>0.790000000000191</v>
       </c>
       <c r="BB20" t="n">
         <v>327.29</v>
@@ -10170,7 +10170,7 @@
         <v>11.5</v>
       </c>
       <c r="BD20" t="n">
-        <v>1.159999999999997</v>
+        <v>0.0399999999999926</v>
       </c>
       <c r="BE20" t="n">
         <v>163.34</v>
@@ -10179,7 +10179,7 @@
         <v>2.3</v>
       </c>
       <c r="BG20" t="n">
-        <v>521.0200000000001</v>
+        <v>456.5800000000002</v>
       </c>
       <c r="BH20" t="n">
         <v>581.77</v>
@@ -10188,7 +10188,7 @@
         <v>7.3</v>
       </c>
       <c r="BJ20" t="n">
-        <v>38.49000000000001</v>
+        <v>35.56999999999993</v>
       </c>
       <c r="BK20" t="n">
         <v>1453.82</v>
@@ -10197,7 +10197,7 @@
         <v>30</v>
       </c>
       <c r="BM20" t="n">
-        <v>2.169999999999987</v>
+        <v>0.2499999999999711</v>
       </c>
       <c r="BN20" t="n">
         <v>204.07</v>
@@ -10215,7 +10215,7 @@
         <v>9.4</v>
       </c>
       <c r="BS20" t="n">
-        <v>65.05000000000018</v>
+        <v>36.57000000000062</v>
       </c>
       <c r="BT20" t="n">
         <v>5234.35</v>
@@ -10233,7 +10233,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="BY20" t="n">
-        <v>4.739999999999782</v>
+        <v>1.599999999999455</v>
       </c>
       <c r="BZ20" t="n">
         <v>3460.4</v>
@@ -10242,7 +10242,7 @@
         <v>7.5</v>
       </c>
       <c r="CB20" t="n">
-        <v>4.350000000000023</v>
+        <v>1.939999999999718</v>
       </c>
       <c r="CC20" t="n">
         <v>637.29</v>
@@ -10251,7 +10251,7 @@
         <v>11.5</v>
       </c>
       <c r="CE20" t="n">
-        <v>1387.64</v>
+        <v>1329.53</v>
       </c>
       <c r="CF20" t="n">
         <v>1257</v>
@@ -10260,7 +10260,7 @@
         <v>-10.1</v>
       </c>
       <c r="CH20" t="n">
-        <v>22.32000000000016</v>
+        <v>21.35000000000013</v>
       </c>
       <c r="CI20" t="n">
         <v>940.01</v>
@@ -10269,7 +10269,7 @@
         <v>-9.5</v>
       </c>
       <c r="CK20" t="n">
-        <v>17.80000000000018</v>
+        <v>4.849999999999909</v>
       </c>
       <c r="CL20" t="n">
         <v>2975.11</v>
@@ -10278,7 +10278,7 @@
         <v>8.4</v>
       </c>
       <c r="CN20" t="n">
-        <v>5.490000000000009</v>
+        <v>0.3899999999996431</v>
       </c>
       <c r="CO20" t="n">
         <v>422.39</v>
@@ -10305,7 +10305,7 @@
         <v>10.2</v>
       </c>
       <c r="CW20" t="n">
-        <v>27.48000000000002</v>
+        <v>9.28999999999863</v>
       </c>
       <c r="CX20" t="n">
         <v>2589.87</v>
@@ -10323,7 +10323,7 @@
         <v>3.6</v>
       </c>
       <c r="DC20" t="n">
-        <v>9.720000000000027</v>
+        <v>2.6400000000001</v>
       </c>
       <c r="DD20" t="n">
         <v>848.17</v>
@@ -10332,7 +10332,7 @@
         <v>10</v>
       </c>
       <c r="DF20" t="n">
-        <v>1355.9</v>
+        <v>1148.7</v>
       </c>
       <c r="DG20" t="n">
         <v>1534.87</v>
@@ -10341,7 +10341,7 @@
         <v>7.5</v>
       </c>
       <c r="DI20" t="n">
-        <v>1229.67</v>
+        <v>1220.509999999998</v>
       </c>
       <c r="DJ20" t="n">
         <v>1326.03</v>
@@ -10504,7 +10504,7 @@
         <v>9.33</v>
       </c>
       <c r="E21" t="n">
-        <v>31.83999999999924</v>
+        <v>9.91999999999917</v>
       </c>
       <c r="F21" t="n">
         <v>5141.95</v>
@@ -10513,7 +10513,7 @@
         <v>14.38</v>
       </c>
       <c r="H21" t="n">
-        <v>3.039999999999964</v>
+        <v>0.719999999999914</v>
       </c>
       <c r="I21" t="n">
         <v>697.91</v>
@@ -10522,7 +10522,7 @@
         <v>12.3</v>
       </c>
       <c r="K21" t="n">
-        <v>439.51</v>
+        <v>421.0800000000002</v>
       </c>
       <c r="L21" t="n">
         <v>492.83</v>
@@ -10540,7 +10540,7 @@
         <v>29.45</v>
       </c>
       <c r="Q21" t="n">
-        <v>25.95999999999958</v>
+        <v>0.5699999999992507</v>
       </c>
       <c r="R21" t="n">
         <v>3821.84</v>
@@ -10567,7 +10567,7 @@
         <v>12.37</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.70999999999998</v>
+        <v>0.04999999999995497</v>
       </c>
       <c r="AA21" t="n">
         <v>521.01</v>
@@ -10585,7 +10585,7 @@
         <v>12.76</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.909999999999997</v>
+        <v>0.2299999999999331</v>
       </c>
       <c r="AG21" t="n">
         <v>214.21</v>
@@ -10594,7 +10594,7 @@
         <v>6.62</v>
       </c>
       <c r="AI21" t="n">
-        <v>78.84000000000384</v>
+        <v>16.05000000000308</v>
       </c>
       <c r="AJ21" t="n">
         <v>60763.82</v>
@@ -10612,7 +10612,7 @@
         <v>10.19</v>
       </c>
       <c r="AO21" t="n">
-        <v>5.690000000000502</v>
+        <v>3.05000000000107</v>
       </c>
       <c r="AP21" t="n">
         <v>2989.23</v>
@@ -10621,7 +10621,7 @@
         <v>9.76</v>
       </c>
       <c r="AR21" t="n">
-        <v>1298.85</v>
+        <v>1206.69</v>
       </c>
       <c r="AS21" t="n">
         <v>1385.83</v>
@@ -10630,7 +10630,7 @@
         <v>4.69</v>
       </c>
       <c r="AU21" t="n">
-        <v>195.23</v>
+        <v>194.59</v>
       </c>
       <c r="AV21" t="n">
         <v>208.48</v>
@@ -10639,7 +10639,7 @@
         <v>4.37</v>
       </c>
       <c r="AX21" t="n">
-        <v>11.5300000000002</v>
+        <v>2.54999999999997</v>
       </c>
       <c r="AY21" t="n">
         <v>1151.24</v>
@@ -10648,7 +10648,7 @@
         <v>10.77</v>
       </c>
       <c r="BA21" t="n">
-        <v>291.71</v>
+        <v>281.8899999999995</v>
       </c>
       <c r="BB21" t="n">
         <v>327.95</v>
@@ -10684,7 +10684,7 @@
         <v>26.74</v>
       </c>
       <c r="BM21" t="n">
-        <v>179.93</v>
+        <v>176.05</v>
       </c>
       <c r="BN21" t="n">
         <v>206.96</v>
@@ -10693,7 +10693,7 @@
         <v>12.92</v>
       </c>
       <c r="BP21" t="n">
-        <v>6.460000000000264</v>
+        <v>0.6400000000007819</v>
       </c>
       <c r="BQ21" t="n">
         <v>1625.07</v>
@@ -10711,7 +10711,7 @@
         <v>4.62</v>
       </c>
       <c r="BV21" t="n">
-        <v>34.3699999999999</v>
+        <v>6.140000000000336</v>
       </c>
       <c r="BW21" t="n">
         <v>5706.38</v>
@@ -10720,7 +10720,7 @@
         <v>10.64</v>
       </c>
       <c r="BY21" t="n">
-        <v>26.20000000000027</v>
+        <v>13.52000000000181</v>
       </c>
       <c r="BZ21" t="n">
         <v>3488.4</v>
@@ -10729,7 +10729,7 @@
         <v>8.220000000000001</v>
       </c>
       <c r="CB21" t="n">
-        <v>6.319999999999938</v>
+        <v>0.03000000000019698</v>
       </c>
       <c r="CC21" t="n">
         <v>648.49</v>
@@ -10738,7 +10738,7 @@
         <v>12.61</v>
       </c>
       <c r="CE21" t="n">
-        <v>1369.26</v>
+        <v>0.9900000000000091</v>
       </c>
       <c r="CF21" t="n">
         <v>1255.93</v>
@@ -10747,7 +10747,7 @@
         <v>-9.49</v>
       </c>
       <c r="CH21" t="n">
-        <v>1028.63</v>
+        <v>939.3499999999995</v>
       </c>
       <c r="CI21" t="n">
         <v>945.26</v>
@@ -10756,7 +10756,7 @@
         <v>-10.88</v>
       </c>
       <c r="CK21" t="n">
-        <v>25.97000000000025</v>
+        <v>3.320000000000164</v>
       </c>
       <c r="CL21" t="n">
         <v>2999.48</v>
@@ -10765,7 +10765,7 @@
         <v>7.81</v>
       </c>
       <c r="CN21" t="n">
-        <v>21.07999999999998</v>
+        <v>7.620000000000287</v>
       </c>
       <c r="CO21" t="n">
         <v>425.08</v>
@@ -10783,7 +10783,7 @@
         <v>6.89</v>
       </c>
       <c r="CT21" t="n">
-        <v>12.37999999999988</v>
+        <v>0.1800000000000828</v>
       </c>
       <c r="CU21" t="n">
         <v>1618.95</v>
@@ -10792,7 +10792,7 @@
         <v>11.58</v>
       </c>
       <c r="CW21" t="n">
-        <v>13.57000000000016</v>
+        <v>0.1000000000003496</v>
       </c>
       <c r="CX21" t="n">
         <v>2614.86</v>
@@ -10837,7 +10837,7 @@
         <v>7.37</v>
       </c>
       <c r="DL21" t="n">
-        <v>21.30000000000019</v>
+        <v>15.58000000000083</v>
       </c>
       <c r="DM21" t="n">
         <v>3426.94</v>
@@ -10982,7 +10982,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1808.71</v>
+        <v>1785.27</v>
       </c>
       <c r="C22" t="n">
         <v>2008.93</v>
@@ -10991,7 +10991,7 @@
         <v>9.6</v>
       </c>
       <c r="E22" t="n">
-        <v>30.95000000000073</v>
+        <v>1.19000000000322</v>
       </c>
       <c r="F22" t="n">
         <v>5215.78</v>
@@ -11000,7 +11000,7 @@
         <v>14.66</v>
       </c>
       <c r="H22" t="n">
-        <v>620.1</v>
+        <v>612.5800000000003</v>
       </c>
       <c r="I22" t="n">
         <v>704.54</v>
@@ -11018,7 +11018,7 @@
         <v>10.46</v>
       </c>
       <c r="N22" t="n">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="O22" t="n">
         <v>1.94</v>
@@ -11027,7 +11027,7 @@
         <v>34.14</v>
       </c>
       <c r="Q22" t="n">
-        <v>3567.72</v>
+        <v>3540.050000000003</v>
       </c>
       <c r="R22" t="n">
         <v>3842.93</v>
@@ -11036,7 +11036,7 @@
         <v>6.51</v>
       </c>
       <c r="T22" t="n">
-        <v>487.41</v>
+        <v>485.65</v>
       </c>
       <c r="U22" t="n">
         <v>522.03</v>
@@ -11054,7 +11054,7 @@
         <v>10.59</v>
       </c>
       <c r="Z22" t="n">
-        <v>1.879999999999995</v>
+        <v>1.02000000000015</v>
       </c>
       <c r="AA22" t="n">
         <v>521.39</v>
@@ -11072,7 +11072,7 @@
         <v>12.61</v>
       </c>
       <c r="AF22" t="n">
-        <v>4.030000000000001</v>
+        <v>0.5900000000001726</v>
       </c>
       <c r="AG22" t="n">
         <v>219.76</v>
@@ -11081,7 +11081,7 @@
         <v>8.35</v>
       </c>
       <c r="AI22" t="n">
-        <v>55743.16</v>
+        <v>55490.59</v>
       </c>
       <c r="AJ22" t="n">
         <v>61203.66</v>
@@ -11099,7 +11099,7 @@
         <v>10.85</v>
       </c>
       <c r="AO22" t="n">
-        <v>9.2199999999998</v>
+        <v>3.529999999999298</v>
       </c>
       <c r="AP22" t="n">
         <v>3011.22</v>
@@ -11117,7 +11117,7 @@
         <v>5.95</v>
       </c>
       <c r="AU22" t="n">
-        <v>197.36</v>
+        <v>2.130000000000024</v>
       </c>
       <c r="AV22" t="n">
         <v>210.84</v>
@@ -11126,7 +11126,7 @@
         <v>6.29</v>
       </c>
       <c r="AX22" t="n">
-        <v>3.789999999999964</v>
+        <v>0.9999999999997682</v>
       </c>
       <c r="AY22" t="n">
         <v>1162.93</v>
@@ -11144,7 +11144,7 @@
         <v>10.65</v>
       </c>
       <c r="BD22" t="n">
-        <v>158.87</v>
+        <v>157.79</v>
       </c>
       <c r="BE22" t="n">
         <v>162.96</v>
@@ -11171,7 +11171,7 @@
         <v>21.32</v>
       </c>
       <c r="BM22" t="n">
-        <v>180.58</v>
+        <v>0.6500000000000057</v>
       </c>
       <c r="BN22" t="n">
         <v>209.46</v>
@@ -11180,7 +11180,7 @@
         <v>14.42</v>
       </c>
       <c r="BP22" t="n">
-        <v>1452.11</v>
+        <v>1437.909999999998</v>
       </c>
       <c r="BQ22" t="n">
         <v>1623.86</v>
@@ -11189,7 +11189,7 @@
         <v>9.279999999999999</v>
       </c>
       <c r="BS22" t="n">
-        <v>4888.26</v>
+        <v>4836.700000000003</v>
       </c>
       <c r="BT22" t="n">
         <v>5254.38</v>
@@ -11198,7 +11198,7 @@
         <v>4.15</v>
       </c>
       <c r="BV22" t="n">
-        <v>5082.23</v>
+        <v>5001.209999999999</v>
       </c>
       <c r="BW22" t="n">
         <v>5711.37</v>
@@ -11216,7 +11216,7 @@
         <v>8.09</v>
       </c>
       <c r="CB22" t="n">
-        <v>6.100000000000023</v>
+        <v>0.1900000000002771</v>
       </c>
       <c r="CC22" t="n">
         <v>650.8</v>
@@ -11225,7 +11225,7 @@
         <v>10.95</v>
       </c>
       <c r="CE22" t="n">
-        <v>23.53999999999996</v>
+        <v>22.54999999999995</v>
       </c>
       <c r="CF22" t="n">
         <v>1271.78</v>
@@ -11234,7 +11234,7 @@
         <v>-7.12</v>
       </c>
       <c r="CH22" t="n">
-        <v>992.49</v>
+        <v>8.500000000000227</v>
       </c>
       <c r="CI22" t="n">
         <v>944.55</v>
@@ -11243,7 +11243,7 @@
         <v>-10.12</v>
       </c>
       <c r="CK22" t="n">
-        <v>8.319999999999709</v>
+        <v>0.1499999999996362</v>
       </c>
       <c r="CL22" t="n">
         <v>3048.85</v>
@@ -11252,7 +11252,7 @@
         <v>8.57</v>
       </c>
       <c r="CN22" t="n">
-        <v>356.97</v>
+        <v>299.6399999999999</v>
       </c>
       <c r="CO22" t="n">
         <v>431.84</v>
@@ -11261,7 +11261,7 @@
         <v>5.61</v>
       </c>
       <c r="CQ22" t="n">
-        <v>1059.08</v>
+        <v>1040.36</v>
       </c>
       <c r="CR22" t="n">
         <v>1137.71</v>
@@ -11270,7 +11270,7 @@
         <v>6.21</v>
       </c>
       <c r="CT22" t="n">
-        <v>5.980000000000018</v>
+        <v>2.749999999999986</v>
       </c>
       <c r="CU22" t="n">
         <v>1629.88</v>
@@ -11279,7 +11279,7 @@
         <v>11.39</v>
       </c>
       <c r="CW22" t="n">
-        <v>20.08999999999969</v>
+        <v>6.319999999998831</v>
       </c>
       <c r="CX22" t="n">
         <v>2645.35</v>
@@ -11297,7 +11297,7 @@
         <v>3.92</v>
       </c>
       <c r="DC22" t="n">
-        <v>779.8199999999999</v>
+        <v>778.4999999999998</v>
       </c>
       <c r="DD22" t="n">
         <v>866.66</v>
@@ -11315,7 +11315,7 @@
         <v>12.12</v>
       </c>
       <c r="DI22" t="n">
-        <v>1231.53</v>
+        <v>1165.05</v>
       </c>
       <c r="DJ22" t="n">
         <v>1326.42</v>
@@ -11324,7 +11324,7 @@
         <v>6.11</v>
       </c>
       <c r="DL22" t="n">
-        <v>3158.2</v>
+        <v>3081.579999999999</v>
       </c>
       <c r="DM22" t="n">
         <v>3475.12</v>
@@ -11333,7 +11333,7 @@
         <v>6.95</v>
       </c>
       <c r="DO22" t="n">
-        <v>1.439999999999998</v>
+        <v>1.279999999999974</v>
       </c>
       <c r="DP22" t="n">
         <v>127.53</v>
